--- a/src/attributions/attributions_saliency_traj_447.xlsx
+++ b/src/attributions/attributions_saliency_traj_447.xlsx
@@ -1573,571 +1573,571 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01964986324310303</v>
+        <v>0.1944579035043716</v>
       </c>
       <c r="B3" t="n">
-        <v>0.007465091533958912</v>
+        <v>1.154752373695374</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006310374476015568</v>
+        <v>0.1259870827198029</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01250595971941948</v>
+        <v>0.2997176647186279</v>
       </c>
       <c r="E3" t="n">
-        <v>0.007281934842467308</v>
+        <v>0.3426373600959778</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005810057744383812</v>
+        <v>0.1282700151205063</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007562409155070782</v>
+        <v>0.01653243415057659</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001059981295838952</v>
+        <v>0.01996109262108803</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001255986047908664</v>
+        <v>0.04183454439043999</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01758729293942451</v>
+        <v>0.2948558926582336</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003430759068578482</v>
+        <v>0.9953184723854065</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01098218373954296</v>
+        <v>0.04758048802614212</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01395729370415211</v>
+        <v>0.4719758331775665</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0002570271026343107</v>
+        <v>0.4271973371505737</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00901386234909296</v>
+        <v>0.1838625222444534</v>
       </c>
       <c r="P3" t="n">
-        <v>0.009558845311403275</v>
+        <v>0.00174558162689209</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001397117506712675</v>
+        <v>0.2006910592317581</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001628483762033284</v>
+        <v>0.1231361553072929</v>
       </c>
       <c r="S3" t="n">
-        <v>0.000266937306150794</v>
+        <v>0.0448710136115551</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0005793526070192456</v>
+        <v>0.224807471036911</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0005124275339767337</v>
+        <v>0.01037616841495037</v>
       </c>
       <c r="V3" t="n">
-        <v>0.006053851917386055</v>
+        <v>0.07842452079057693</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0004092107410542667</v>
+        <v>0.1757138669490814</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001065798569470644</v>
+        <v>0.1007933467626572</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0009385234443470836</v>
+        <v>0.04049306362867355</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.81910852715373e-05</v>
+        <v>0.1301075965166092</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.000219487032154575</v>
+        <v>0.09357459843158722</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.002795865759253502</v>
+        <v>0.1173602044582367</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.002427268773317337</v>
+        <v>0.1546003073453903</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.002617269288748503</v>
+        <v>0.1176846772432327</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.001313329208642244</v>
+        <v>0.1033179089426994</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.002957463497295976</v>
+        <v>0.1396748870611191</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.004559821914881468</v>
+        <v>0.09961538761854172</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.002064763801172376</v>
+        <v>0.03601277619600296</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.004731355234980583</v>
+        <v>0.002893473953008652</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.0003538734745234251</v>
+        <v>0.01439925748854876</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.005529683083295822</v>
+        <v>0.1025123670697212</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.003913826309144497</v>
+        <v>0.1502776294946671</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.060587237589061e-05</v>
+        <v>0.01715912856161594</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.002983136335387826</v>
+        <v>0.06126870587468147</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0001856394519563764</v>
+        <v>0.07509075850248337</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.003874934045597911</v>
+        <v>0.1430816799402237</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.0003281397221144289</v>
+        <v>0.01922641322016716</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.003455334110185504</v>
+        <v>0.003892853856086731</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.001131891738623381</v>
+        <v>0.07002858817577362</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.008865009993314743</v>
+        <v>0.01512536220252514</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.0005122019210830331</v>
+        <v>0.671566367149353</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.004117422737181187</v>
+        <v>0.1124425679445267</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.002906323643401265</v>
+        <v>0.1383025348186493</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.006975416559726</v>
+        <v>0.1780109703540802</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.005723800044506788</v>
+        <v>0.04262224212288857</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.00361302774399519</v>
+        <v>0.1907559186220169</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.00607683090493083</v>
+        <v>0.02692662179470062</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.0008795314934104681</v>
+        <v>0.0199569184333086</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.005923295393586159</v>
+        <v>0.03240177780389786</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.002661657286807895</v>
+        <v>0.1986594200134277</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.00466243689879775</v>
+        <v>0.1839011609554291</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.00390425231307745</v>
+        <v>0.1216323226690292</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.0005122728762216866</v>
+        <v>0.3189595937728882</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.0006372699863277376</v>
+        <v>0.08304847031831741</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.007913989014923573</v>
+        <v>0.1154209673404694</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.012261220254004</v>
+        <v>0.1164445951581001</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.0002290615811944008</v>
+        <v>0.09974781423807144</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.00202509667724371</v>
+        <v>0.003393749939277768</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.0009658939088694751</v>
+        <v>0.04511877149343491</v>
       </c>
       <c r="BN3" t="n">
-        <v>4.480631105252542e-05</v>
+        <v>0.03451124578714371</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.001932856044732034</v>
+        <v>0.05047046393156052</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.001960754860192537</v>
+        <v>0.1801522076129913</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.0002909684553742409</v>
+        <v>0.1447248458862305</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.0001853559806477278</v>
+        <v>0.08302658796310425</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.002513943240046501</v>
+        <v>0.1051665619015694</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.0005812944145873189</v>
+        <v>0.1397393941879272</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.00798427127301693</v>
+        <v>0.03674332052469254</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.002560127060860395</v>
+        <v>0.3646604418754578</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.002838166197761893</v>
+        <v>0.1336226612329483</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.003246991895139217</v>
+        <v>0.03530031070113182</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.004713696427643299</v>
+        <v>0.09271220862865448</v>
       </c>
       <c r="BZ3" t="n">
-        <v>5.514019721886143e-05</v>
+        <v>0.00108626764267683</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.0006485753692686558</v>
+        <v>0.05176041275262833</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.003230121685191989</v>
+        <v>0.02580003440380096</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.001790086040273309</v>
+        <v>0.07171553373336792</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.003681939793750644</v>
+        <v>0.02150307223200798</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.005010078195482492</v>
+        <v>0.2073180973529816</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.0008657915750518441</v>
+        <v>0.04197223857045174</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.001776932971552014</v>
+        <v>0.02416881918907166</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.00199400819838047</v>
+        <v>0.001222245860844851</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.001710192766040564</v>
+        <v>0.01499220170080662</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.001571097178384662</v>
+        <v>0.03812605142593384</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.001045938231982291</v>
+        <v>0.0234921108931303</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.0004939901409670711</v>
+        <v>0.003862399607896805</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.001351019483990967</v>
+        <v>0.2074427604675293</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.0006369940238073468</v>
+        <v>0.07021141052246094</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.0008659531595185399</v>
+        <v>0.05674095451831818</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.003449700307101011</v>
+        <v>0.204345166683197</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.007171888370066881</v>
+        <v>0.2815726101398468</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.01051904913038015</v>
+        <v>0.1125144809484482</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.0005418543005362153</v>
+        <v>0.1435405015945435</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.004915061872452497</v>
+        <v>0.1314660161733627</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.001492841867730021</v>
+        <v>0.03074948489665985</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.002885506022721529</v>
+        <v>0.008087778463959694</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.005622811149805784</v>
+        <v>0.2078663110733032</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.001170949777588248</v>
+        <v>0.05761601030826569</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.001340831629931927</v>
+        <v>0.06731217354536057</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.00349170551635325</v>
+        <v>0.0020967205055058</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.001630861894227564</v>
+        <v>0.005616508424282074</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.001762768952175975</v>
+        <v>0.07155613601207733</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.0002807335113175213</v>
+        <v>0.03517889976501465</v>
       </c>
       <c r="DD3" t="n">
-        <v>3.423963789828122e-05</v>
+        <v>0.002031702548265457</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.0005960542475804687</v>
+        <v>0.05330333486199379</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.009890234097838402</v>
+        <v>0.2917781472206116</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.00148909620475024</v>
+        <v>0.06467257440090179</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.003475438803434372</v>
+        <v>0.02843675948679447</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.004589544609189034</v>
+        <v>0.03278104215860367</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.002685938263311982</v>
+        <v>0.007885836996138096</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.004140851553529501</v>
+        <v>0.06284871697425842</v>
       </c>
       <c r="DL3" t="n">
-        <v>4.324798646848649e-05</v>
+        <v>0.1023857295513153</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.0008075754740275443</v>
+        <v>0.005698530003428459</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.001687281765043736</v>
+        <v>0.0521605983376503</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.004298169631510973</v>
+        <v>0.1369723379611969</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.0006148655083961785</v>
+        <v>0.04232678562402725</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.000673465256113559</v>
+        <v>0.09994314610958099</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.0005686706863343716</v>
+        <v>0.09645941108465195</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.0007382949697785079</v>
+        <v>0.01597315818071365</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.000435351743362844</v>
+        <v>0.05566568300127983</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.002511610509827733</v>
+        <v>0.01840144768357277</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.0004230719059705734</v>
+        <v>0.01900024712085724</v>
       </c>
       <c r="DW3" t="n">
-        <v>7.325204205699265e-05</v>
+        <v>0.00266864150762558</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.0008536733221262693</v>
+        <v>0.1984252333641052</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.002544463379308581</v>
+        <v>0.01794708892703056</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.001219896832481027</v>
+        <v>0.1036845147609711</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.002013393212109804</v>
+        <v>0.0724915936589241</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.002280458342283964</v>
+        <v>0.09079015254974365</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.0025796121917665</v>
+        <v>0.002222207607701421</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.003976353909820318</v>
+        <v>0.1419731229543686</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.0002361777005717158</v>
+        <v>0.05456123873591423</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.007616627961397171</v>
+        <v>0.008434208109974861</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.004653064534068108</v>
+        <v>0.1009426563978195</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.0007290210924111307</v>
+        <v>0.04249363020062447</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.003226596396416426</v>
+        <v>0.01461185794323683</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.004072971176356077</v>
+        <v>0.0851086899638176</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.003663368755951524</v>
+        <v>0.0289445836097002</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.001565974787808955</v>
+        <v>0.1037152409553528</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.003893301822245121</v>
+        <v>0.01036780793219805</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.001338616129942238</v>
+        <v>0.03684950619935989</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.001383370952680707</v>
+        <v>0.007355241104960442</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.00346731417812407</v>
+        <v>0.1898323893547058</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.005264559295028448</v>
+        <v>0.1297284066677094</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.002180678769946098</v>
+        <v>0.08553335070610046</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.0006964562344364822</v>
+        <v>0.03926463425159454</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.0005882355617359281</v>
+        <v>0.04319342225790024</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.001245065941475332</v>
+        <v>0.05047982186079025</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.001884412835352123</v>
+        <v>0.05669675767421722</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.001781357335858047</v>
+        <v>0.04983540624380112</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.003373170737177134</v>
+        <v>0.01898080483078957</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.004897655453532934</v>
+        <v>0.2199812382459641</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.001891318126581609</v>
+        <v>0.028844203799963</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.001151085598394275</v>
+        <v>0.02378377318382263</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.002842160407453775</v>
+        <v>0.02182990312576294</v>
       </c>
       <c r="FC3" t="n">
-        <v>6.026224582456052e-05</v>
+        <v>0.01614291779696941</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.001623708638362586</v>
+        <v>0.07476372271776199</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.001669537974521518</v>
+        <v>0.04163674265146255</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.0005775129538960755</v>
+        <v>0.02740860544145107</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.003385435091331601</v>
+        <v>0.01809572987258434</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.001883611548691988</v>
+        <v>0.03263972327113152</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.0006777725066058338</v>
+        <v>0.0883154422044754</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.003607032122090459</v>
+        <v>0.07689540088176727</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.001403695205226541</v>
+        <v>0.1044521927833557</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.003054535482078791</v>
+        <v>0.02878360450267792</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.002370249480009079</v>
+        <v>0.08584374934434891</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.003388306591659784</v>
+        <v>0.05451877787709236</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.001932734274305403</v>
+        <v>0.04074490442872047</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.002056027762591839</v>
+        <v>0.07342441380023956</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.005410310812294483</v>
+        <v>0.2085257470607758</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.00405981857329607</v>
+        <v>0.1276358664035797</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.005694624967873096</v>
+        <v>0.04306872561573982</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.001918587600812316</v>
+        <v>0.04385319352149963</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.002920787781476974</v>
+        <v>0.05464823916554451</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.002984517719596624</v>
+        <v>0.04501528292894363</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.001135112135671079</v>
+        <v>0.2481929063796997</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.0009021366713568568</v>
+        <v>0.01092195883393288</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.004973853472620249</v>
+        <v>0.1526347100734711</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.0006576315499842167</v>
+        <v>0.03354628011584282</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.002714022295549512</v>
+        <v>0.005928758531808853</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.001820542151108384</v>
+        <v>0.0721718966960907</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.001750928233377635</v>
+        <v>0.2469508945941925</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.0007174625061452389</v>
+        <v>0.1347371190786362</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.001416484243236482</v>
+        <v>0.205377385020256</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.001879826653748751</v>
+        <v>0.145789310336113</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.002316776663064957</v>
+        <v>0.006316520273685455</v>
       </c>
     </row>
     <row r="4">
@@ -2711,5123 +2711,5123 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01743672788143158</v>
+        <v>0.0003427093906793743</v>
       </c>
       <c r="B5" t="n">
-        <v>0.007706040982156992</v>
+        <v>0.007074887864291668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001350676902802661</v>
+        <v>0.0003954570274800062</v>
       </c>
       <c r="D5" t="n">
-        <v>0.006443548016250134</v>
+        <v>0.003062558360397816</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00384033634327352</v>
+        <v>0.0006815736996941268</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001086739241145551</v>
+        <v>6.989850953686982e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004382758401334286</v>
+        <v>0.0006616997998207808</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0003770635812543333</v>
+        <v>0.001766788889653981</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003371976199559867</v>
+        <v>0.0002068929316010326</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01492321584373713</v>
+        <v>7.874041330069304e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002649066504091024</v>
+        <v>0.006233584135770798</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001454279874451458</v>
+        <v>0.0003591147251427174</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005690436344593763</v>
+        <v>0.003347890451550484</v>
       </c>
       <c r="N5" t="n">
-        <v>0.006535737309604883</v>
+        <v>0.001188888330943882</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001948770834133029</v>
+        <v>0.00119878095574677</v>
       </c>
       <c r="P5" t="n">
-        <v>0.00444805109873414</v>
+        <v>0.0003172311699017882</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0008985127788037062</v>
+        <v>0.0003603850200306624</v>
       </c>
       <c r="R5" t="n">
-        <v>0.00186219927854836</v>
+        <v>0.0005201284657232463</v>
       </c>
       <c r="S5" t="n">
-        <v>0.002421253127977252</v>
+        <v>0.0002704951330088079</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0005534222000278533</v>
+        <v>0.00143978965934366</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0003419619461055845</v>
+        <v>0.0005672075785696507</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0004559913068078458</v>
+        <v>2.078104444080964e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002308534923940897</v>
+        <v>0.0009545037755742669</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0005107189062982798</v>
+        <v>0.0009902119636535645</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001955337589606643</v>
+        <v>0.0003211184230167419</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.002398414304479957</v>
+        <v>0.0004827150260098279</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0002267073432449251</v>
+        <v>0.0005246052169241011</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.002172793028876185</v>
+        <v>8.651596726849675e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0009611760615371168</v>
+        <v>0.001473412732593715</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.001496182754635811</v>
+        <v>0.0002452727640047669</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.00146118737757206</v>
+        <v>0.0005592519300989807</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0003380706766620278</v>
+        <v>0.000391271838452667</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.001564087579026818</v>
+        <v>8.336280006915331e-05</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.0002982528530992568</v>
+        <v>0.0009903388563543558</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.003715799422934651</v>
+        <v>0.0003380324633326381</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.001484866486862302</v>
+        <v>0.0001918696652865037</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.002359815174713731</v>
+        <v>0.0003272672765888274</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0004738506395369768</v>
+        <v>0.0005114821251481771</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0006428327760659158</v>
+        <v>1.957987296918873e-05</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.0008444334380328655</v>
+        <v>0.0009086871286854148</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.001816564239561558</v>
+        <v>0.0007442425703629851</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.001645592972636223</v>
+        <v>0.0004388417582958937</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.000291028234641999</v>
+        <v>0.0005314472364261746</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.003437201958149672</v>
+        <v>0.0005828000139445066</v>
       </c>
       <c r="AS5" t="n">
-        <v>9.294094343204051e-05</v>
+        <v>7.911150896688923e-05</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.008661183528602123</v>
+        <v>0.0003119392204098403</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.002801949391141534</v>
+        <v>0.004266898613423109</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.0003432827943470329</v>
+        <v>0.001104990253224969</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0004103390965610743</v>
+        <v>0.0006919075967743993</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.0006315157515928149</v>
+        <v>0.001769423368386924</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.003193935612216592</v>
+        <v>0.0005655373097397387</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.00183559360448271</v>
+        <v>0.0003585458325687796</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.002142080804333091</v>
+        <v>0.001560427015647292</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.0005902118282392621</v>
+        <v>8.071136107901111e-05</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.005603338591754436</v>
+        <v>0.001142856432124972</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.002581888576969504</v>
+        <v>0.0009657817427068949</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.0007143330876715481</v>
+        <v>0.001322963275015354</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.001358296489343047</v>
+        <v>0.0002998292620759457</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.0007561040692962706</v>
+        <v>0.001641292008571327</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.001531531801447272</v>
+        <v>0.0001561049866722897</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.003293890506029129</v>
+        <v>0.0003087558434344828</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.004552255850285292</v>
+        <v>0.0005684511852450669</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.0006349557661451399</v>
+        <v>0.000288062758045271</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.001951513229869306</v>
+        <v>0.0008188639767467976</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.001789893954992294</v>
+        <v>0.0003480961022432894</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.0003581650089472532</v>
+        <v>0.0002921929990407079</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.002844083355739713</v>
+        <v>0.001276425085961819</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.001663878560066223</v>
+        <v>0.001613273750990629</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.0005611604428850114</v>
+        <v>0.0009361824486404657</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.0009897875133901834</v>
+        <v>0.0003353176871314645</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.0001740185980452225</v>
+        <v>0.0001332197716692463</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.001032137195579708</v>
+        <v>0.001249239547178149</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.006363222375512123</v>
+        <v>0.0001462493964936584</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.0002530355995986611</v>
+        <v>0.00256863865070045</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.001072127721272409</v>
+        <v>0.0002419712109258398</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.002418610500171781</v>
+        <v>1.98741108761169e-05</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0002550563076511025</v>
+        <v>0.001160756801255047</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.001373117091134191</v>
+        <v>0.0003212394658476114</v>
       </c>
       <c r="CA5" t="n">
-        <v>1.201976556330919e-05</v>
+        <v>0.0004677808610722423</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.0006217454792931676</v>
+        <v>0.0002428197039989755</v>
       </c>
       <c r="CC5" t="n">
-        <v>4.387629451230168e-05</v>
+        <v>0.0001225379382958636</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.003604819998145103</v>
+        <v>0.0001452876749681309</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.001046982710249722</v>
+        <v>0.001429999014362693</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.0001650902995606884</v>
+        <v>0.0001050574137479998</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.002000740030780435</v>
+        <v>0.0001829326502047479</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0005015318747609854</v>
+        <v>0.0001965127885341644</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.0006827817414887249</v>
+        <v>7.565093983430415e-05</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.000512912287376821</v>
+        <v>0.0002579463180154562</v>
       </c>
       <c r="CK5" t="n">
-        <v>4.936619916406926e-06</v>
+        <v>6.748789746779948e-05</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.0002367078996030614</v>
+        <v>8.182789315469563e-06</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.00252240733243525</v>
+        <v>0.001334457658231258</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.001860110787674785</v>
+        <v>0.0007321013836190104</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.0005403566174209118</v>
+        <v>9.384623263031244e-05</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.0004452744033187628</v>
+        <v>0.002017260063439608</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.005686510819941759</v>
+        <v>0.001993297366425395</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.001876718131825328</v>
+        <v>0.001891531865112484</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.001741112908348441</v>
+        <v>0.0008209377992898226</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.003704707836732268</v>
+        <v>0.000917098019272089</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.001060653012245893</v>
+        <v>0.0002473218482919037</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.003221345599740744</v>
+        <v>0.0001956716005224735</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.0008454531780444086</v>
+        <v>0.001328013371676207</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.0003932688850909472</v>
+        <v>0.0004025225643999875</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.0009484469192102551</v>
+        <v>0.0005205312045291066</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.0001754128170432523</v>
+        <v>0.0003558421449270099</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.001040572766214609</v>
+        <v>5.724757102143485e-06</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.0006223483942449093</v>
+        <v>0.0003292656328994781</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.0002654943091329187</v>
+        <v>0.0002018747327383608</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.0001625579025130719</v>
+        <v>6.101388862589374e-05</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.0002408066211501136</v>
+        <v>0.0005139971617609262</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.003369665471836925</v>
+        <v>0.001690530218183994</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.0003840129356831312</v>
+        <v>0.0001733720273477957</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.003097483655437827</v>
+        <v>0.0002512916107662022</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.001687094336375594</v>
+        <v>0.0007479207706637681</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.0006267423741519451</v>
+        <v>0.0001735321129672229</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.0003457244019955397</v>
+        <v>0.0001096877895179205</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.000731112842913717</v>
+        <v>0.0001045075769070536</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.0005462710978463292</v>
+        <v>6.080311140976846e-05</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.001163436099886894</v>
+        <v>0.0003119795874226838</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.00200597383081913</v>
+        <v>0.0007164464914239943</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.000367272412404418</v>
+        <v>0.0004579881788231432</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.0008866038988344371</v>
+        <v>0.0007979258662089705</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.0007203411660157144</v>
+        <v>0.001003563404083252</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.000431627209763974</v>
+        <v>0.0002219535817857832</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.0002021837572101504</v>
+        <v>0.0003074535052292049</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.001136938226409256</v>
+        <v>0.0002669700479600579</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.0005883029079996049</v>
+        <v>0.0006867888732813299</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.001175683573819697</v>
+        <v>2.414337359368801e-05</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.00101947458460927</v>
+        <v>0.0006290451274253428</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.001365870237350464</v>
+        <v>0.0004271708312444389</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.001887836260721087</v>
+        <v>0.0002009330783039331</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0008905568975023925</v>
+        <v>9.319205128122121e-05</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.0003872812958434224</v>
+        <v>9.328759915661067e-05</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.0001272352528758347</v>
+        <v>0.0003098552697338164</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.003042489057406783</v>
+        <v>0.0005619694129563868</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.001344370539300144</v>
+        <v>0.0003133798018097878</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.004341859370470047</v>
+        <v>0.000207303513889201</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.001673451741226017</v>
+        <v>0.0008383993990719318</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.0005366127006709576</v>
+        <v>0.0005319229676388204</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.002114295959472656</v>
+        <v>8.269932004623115e-05</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0001500174548709765</v>
+        <v>0.001166868605650961</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.001277710893191397</v>
+        <v>0.0001003869547275826</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.0007375699933618307</v>
+        <v>0.0002303157816641033</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.0003974157443735749</v>
+        <v>0.0001753167452989146</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.0008999918936751783</v>
+        <v>0.0001090800215024501</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.0005566578474827111</v>
+        <v>0.0001712434750515968</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.0009654627647250891</v>
+        <v>0.001278315437957644</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.001072318525984883</v>
+        <v>0.0005804304382763803</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.0005521145649254322</v>
+        <v>0.001254418049938977</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.003183456603437662</v>
+        <v>0.0006681704544462264</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.0003484743647277355</v>
+        <v>0.0001385167124681175</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.0005918779643252492</v>
+        <v>0.000492406077682972</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.001015509362332523</v>
+        <v>0.0007572133326902986</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.0002995764371007681</v>
+        <v>0.0001389820827171206</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.003573417197912931</v>
+        <v>1.364295167149976e-05</v>
       </c>
       <c r="EY5" t="n">
-        <v>6.145363840914797e-06</v>
+        <v>0.001452801749110222</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.00036579419975169</v>
+        <v>0.0001490485301474109</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.001155576552264392</v>
+        <v>0.0002672924310900271</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.0006480201263912022</v>
+        <v>0.0003126610245089978</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.0004705350729636848</v>
+        <v>7.748136704321951e-05</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.0004782642354257405</v>
+        <v>0.0003031060041394085</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.0001405899820383638</v>
+        <v>0.0001841884368332103</v>
       </c>
       <c r="FF5" t="n">
-        <v>6.702185783069581e-05</v>
+        <v>8.795720350462943e-05</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.001330249127931893</v>
+        <v>0.0002945602464023978</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.002230520360171795</v>
+        <v>5.352207881514914e-05</v>
       </c>
       <c r="FI5" t="n">
-        <v>5.643887561745942e-05</v>
+        <v>0.001047254772856832</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.0003050277300644666</v>
+        <v>0.0003635581233538687</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.001000962452962995</v>
+        <v>0.0003598174953367561</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.0006193625740706921</v>
+        <v>0.0005609766812995076</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.001194031559862196</v>
+        <v>0.0001985447888728231</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.000392117683077231</v>
+        <v>7.15961359674111e-05</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.0001442896027583629</v>
+        <v>0.0003486743080429733</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.001629955368116498</v>
+        <v>0.0004796396242454648</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.00199671508744359</v>
+        <v>4.958517456543632e-05</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.001756897545419633</v>
+        <v>0.001351238926872611</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.006006293464452028</v>
+        <v>0.0001115814520744607</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.0008823296520859003</v>
+        <v>0.0001744720502756536</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.0005401578382588923</v>
+        <v>0.0005338880000635982</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.001535404357127845</v>
+        <v>0.0008319912012666464</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.0004815724969375879</v>
+        <v>0.0004642739659175277</v>
       </c>
       <c r="FX5" t="n">
-        <v>4.858351894654334e-05</v>
+        <v>0.0004527760320343077</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.0006812626379542053</v>
+        <v>0.0007343774195760489</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.001549504231661558</v>
+        <v>6.462704186560586e-05</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.002048148773610592</v>
+        <v>0.0002823741815518588</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.0030753412283957</v>
+        <v>0.0003195651806890965</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.001438852632418275</v>
+        <v>0.0006237422931008041</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.0006792036583647132</v>
+        <v>0.001102445530705154</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.000896039477083832</v>
+        <v>0.002003165427595377</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.0005340380012057722</v>
+        <v>2.296591992489994e-05</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.0008684910135343671</v>
+        <v>0.0004988820292055607</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.07893005758523941</v>
+        <v>0.1189440041780472</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06016127392649651</v>
+        <v>0.3273763358592987</v>
       </c>
       <c r="C6" t="n">
-        <v>0.009252738207578659</v>
+        <v>0.006473957560956478</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08290073275566101</v>
+        <v>0.04147101938724518</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001892474479973316</v>
+        <v>0.06095825135707855</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005278316792100668</v>
+        <v>0.02423743717372417</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01353591401129961</v>
+        <v>0.0581076480448246</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00390038569457829</v>
+        <v>0.03817301243543625</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02013292536139488</v>
+        <v>0.01333295740187168</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07263565063476562</v>
+        <v>0.1149717345833778</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02627318724989891</v>
+        <v>0.2759225964546204</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0528150200843811</v>
+        <v>0.01381087675690651</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07103876024484634</v>
+        <v>0.1152739524841309</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02765578962862492</v>
+        <v>0.1066891476511955</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03487680852413177</v>
+        <v>0.04347160831093788</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04759880155324936</v>
+        <v>0.0622248686850071</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01331157982349396</v>
+        <v>0.05634737387299538</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01186616625636816</v>
+        <v>0.01614700257778168</v>
       </c>
       <c r="S6" t="n">
-        <v>0.006182634271681309</v>
+        <v>0.008113695308566093</v>
       </c>
       <c r="T6" t="n">
-        <v>0.007823245599865913</v>
+        <v>0.08702922612428665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.009365180507302284</v>
+        <v>0.007586373016238213</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01895102113485336</v>
+        <v>0.02610142715275288</v>
       </c>
       <c r="W6" t="n">
-        <v>0.004828641191124916</v>
+        <v>0.05143314599990845</v>
       </c>
       <c r="X6" t="n">
-        <v>0.005926801823079586</v>
+        <v>0.04380623251199722</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.005289940629154444</v>
+        <v>0.02279200404882431</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.002816197695210576</v>
+        <v>0.0155473044142127</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.01818129047751427</v>
+        <v>0.01090394705533981</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.009988117963075638</v>
+        <v>0.0769178718328476</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.004886235110461712</v>
+        <v>0.1089427396655083</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.02998947538435459</v>
+        <v>0.02963165566325188</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.003143559210002422</v>
+        <v>0.02858086302876472</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.03497788310050964</v>
+        <v>0.003091637045145035</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.00379521818831563</v>
+        <v>0.008254643529653549</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.01619953848421574</v>
+        <v>0.07710748910903931</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.00826023705303669</v>
+        <v>0.004146202467381954</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.0103077981621027</v>
+        <v>0.01889517530798912</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.02919723279774189</v>
+        <v>0.007929922081530094</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.001457505160942674</v>
+        <v>0.06250373274087906</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.009835302829742432</v>
+        <v>0.00750660290941596</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.01954459026455879</v>
+        <v>0.02995060384273529</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.007842857390642166</v>
+        <v>0.01011082902550697</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.01656066440045834</v>
+        <v>0.03783203288912773</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.00634232722222805</v>
+        <v>0.02072663977742195</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.01641218177974224</v>
+        <v>0.006047537550330162</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.002054111566394567</v>
+        <v>0.02882274053990841</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.03853299841284752</v>
+        <v>0.006971693132072687</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.02534652128815651</v>
+        <v>0.1793629676103592</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.01313491538167</v>
+        <v>0.03915448486804962</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.03632362931966782</v>
+        <v>0.004462199285626411</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.01365071255713701</v>
+        <v>0.03801661729812622</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.03515345603227615</v>
+        <v>0.03486742079257965</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.03015432134270668</v>
+        <v>0.03704570978879929</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.01467188820242882</v>
+        <v>0.01032088417559862</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.014315583743155</v>
+        <v>0.02336134761571884</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.03102999553084373</v>
+        <v>0.006503567099571228</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.005146325100213289</v>
+        <v>0.03963200375437737</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.02228500880300999</v>
+        <v>0.03860895335674286</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.01292385440319777</v>
+        <v>0.02142493799328804</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.002169686835259199</v>
+        <v>0.111583910882473</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.003860923461616039</v>
+        <v>0.01012685894966125</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.02567612752318382</v>
+        <v>0.07049764692783356</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.05598501116037369</v>
+        <v>0.03800270706415176</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.01011813338845968</v>
+        <v>0.006077651400119066</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.01999896764755249</v>
+        <v>0.01721764542162418</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.005354511085897684</v>
+        <v>0.04208151996135712</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.005253328941762447</v>
+        <v>0.005926678888499737</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.009181885048747063</v>
+        <v>0.01424987241625786</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.008961332030594349</v>
+        <v>0.01495947036892176</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.004626442678272724</v>
+        <v>0.06015831977128983</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.003820979036390781</v>
+        <v>0.001273253932595253</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.02967943623661995</v>
+        <v>0.03776116669178009</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.001535337301902473</v>
+        <v>0.04146083444356918</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.04279544204473495</v>
+        <v>3.492832183837891e-05</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.0006105962675064802</v>
+        <v>0.1367627829313278</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.01632190868258476</v>
+        <v>0.04591915011405945</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.03497824817895889</v>
+        <v>0.008540503680706024</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.007441237103193998</v>
+        <v>0.01895837858319283</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.01217081490904093</v>
+        <v>0.007317683193832636</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.007374897599220276</v>
+        <v>0.006314943078905344</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.006706370506435633</v>
+        <v>0.03615861758589745</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.01873536966741085</v>
+        <v>0.003530249232426286</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.01378817856311798</v>
+        <v>0.01533657591789961</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.01755557395517826</v>
+        <v>0.06396562606096268</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.001622750423848629</v>
+        <v>0.001965295290574431</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.01158039271831512</v>
+        <v>0.0001340918242931366</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.002757077803835273</v>
+        <v>0.00692044198513031</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.00279145035892725</v>
+        <v>0.001648673322051764</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.003131734672933817</v>
+        <v>0.01169740315526724</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.006524788681417704</v>
+        <v>0.002067681401968002</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.006327760871499777</v>
+        <v>0.008598750457167625</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.02075187675654888</v>
+        <v>0.08157867193222046</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.002852208679541945</v>
+        <v>0.02669727057218552</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.001769795198924839</v>
+        <v>0.01450373511761427</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.000139053794555366</v>
+        <v>0.0456879585981369</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.04018544778227806</v>
+        <v>0.04731708765029907</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.03641067445278168</v>
+        <v>0.0003174520097672939</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.0230134017765522</v>
+        <v>0.01412600930780172</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.03024186566472054</v>
+        <v>0.005372907500714064</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.01035114284604788</v>
+        <v>0.05736361816525459</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.01099014468491077</v>
+        <v>0.00869942270219326</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.02170193009078503</v>
+        <v>0.06891472637653351</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.002356128301471472</v>
+        <v>0.0110264616087079</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.01130443997681141</v>
+        <v>0.004892421886324883</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.009986867196857929</v>
+        <v>0.01832225359976292</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.00513725308701396</v>
+        <v>0.009009843692183495</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.003265927778556943</v>
+        <v>0.01322883553802967</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.009649327024817467</v>
+        <v>0.009217346087098122</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.00995077658444643</v>
+        <v>0.01007519010454416</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.008994725532829762</v>
+        <v>0.01252041663974524</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.0745265930891037</v>
+        <v>0.03458185866475105</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.0227569043636322</v>
+        <v>0.03044756315648556</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.01947132311761379</v>
+        <v>0.06031609699130058</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.01731359772384167</v>
+        <v>0.004380024969577789</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.005728473886847496</v>
+        <v>0.01408976968377829</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.01989148557186127</v>
+        <v>0.01392105966806412</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.01820247620344162</v>
+        <v>0.05015251040458679</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.0133767481893301</v>
+        <v>0.04891153052449226</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.01296605914831161</v>
+        <v>0.01588314026594162</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.02682553790509701</v>
+        <v>0.02901920676231384</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.007693496532738209</v>
+        <v>0.01019477099180222</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.01086509600281715</v>
+        <v>0.02798137441277504</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.01856877468526363</v>
+        <v>0.006818837951868773</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.008508252911269665</v>
+        <v>0.03102836944162846</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.009355613961815834</v>
+        <v>0.006781822070479393</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.01400966849178076</v>
+        <v>0.008381757885217667</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.002211362589150667</v>
+        <v>0.002532090991735458</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.004437485244125128</v>
+        <v>0.007964524440467358</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.002985393395647407</v>
+        <v>0.0414360910654068</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.01606627367436886</v>
+        <v>0.01239020004868507</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.01603560149669647</v>
+        <v>0.002489432226866484</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.023484006524086</v>
+        <v>0.001374563784338534</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.02380791679024696</v>
+        <v>0.04315458610653877</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.01813207194209099</v>
+        <v>0.001939695095643401</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.01628733798861504</v>
+        <v>0.05360148847103119</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.02360204607248306</v>
+        <v>0.01640479639172554</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.04191964119672775</v>
+        <v>0.01897070743143559</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.01315835118293762</v>
+        <v>0.04113705456256866</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.00465394277125597</v>
+        <v>0.005183740518987179</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.01929276436567307</v>
+        <v>0.06032324209809303</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.006703965831547976</v>
+        <v>0.005501370411366224</v>
       </c>
       <c r="EK6" t="n">
-        <v>0.006614907179027796</v>
+        <v>0.01028032600879669</v>
       </c>
       <c r="EL6" t="n">
-        <v>0.0047413962893188</v>
+        <v>0.02198813110589981</v>
       </c>
       <c r="EM6" t="n">
-        <v>0.009581941179931164</v>
+        <v>0.0008600973524153233</v>
       </c>
       <c r="EN6" t="n">
-        <v>0.003879103111103177</v>
+        <v>0.008950723335146904</v>
       </c>
       <c r="EO6" t="n">
-        <v>0.0002194582484662533</v>
+        <v>0.02931934036314487</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.004340208135545254</v>
+        <v>0.0556003637611866</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.0257963240146637</v>
+        <v>0.03052734583616257</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.009961161762475967</v>
+        <v>0.002801019931212068</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.0003090674872510135</v>
+        <v>0.003859718330204487</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.002625043736770749</v>
+        <v>0.0327971987426281</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.01035584509372711</v>
+        <v>0.002957724034786224</v>
       </c>
       <c r="EV6" t="n">
-        <v>0.003563439240679145</v>
+        <v>0.03185970336198807</v>
       </c>
       <c r="EW6" t="n">
-        <v>0.005520727951079607</v>
+        <v>0.02647064998745918</v>
       </c>
       <c r="EX6" t="n">
-        <v>0.01711035333573818</v>
+        <v>0.002419352065771818</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.01841885410249233</v>
+        <v>0.0697629526257515</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.006758712232112885</v>
+        <v>0.0004642581334337592</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.01222847960889339</v>
+        <v>0.00309993838891387</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.005742245819419622</v>
+        <v>0.02671186439692974</v>
       </c>
       <c r="FC6" t="n">
-        <v>0.00202033668756485</v>
+        <v>0.01040680706501007</v>
       </c>
       <c r="FD6" t="n">
-        <v>0.0002377266064286232</v>
+        <v>0.002796656219288707</v>
       </c>
       <c r="FE6" t="n">
-        <v>0.01258589513599873</v>
+        <v>0.007978785783052444</v>
       </c>
       <c r="FF6" t="n">
-        <v>0.001176431658677757</v>
+        <v>0.0005979116540402174</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.01553346496075392</v>
+        <v>0.005792185198515654</v>
       </c>
       <c r="FH6" t="n">
-        <v>0.002109023742377758</v>
+        <v>0.01748384535312653</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.006566307507455349</v>
+        <v>0.02619433775544167</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.01209702156484127</v>
+        <v>0.04844056814908981</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.007864005863666534</v>
+        <v>0.05474631488323212</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.02477205544710159</v>
+        <v>0.01044008694589138</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.01003883592784405</v>
+        <v>0.01391255762428045</v>
       </c>
       <c r="FN6" t="n">
-        <v>0.005494724959135056</v>
+        <v>0.009437522850930691</v>
       </c>
       <c r="FO6" t="n">
-        <v>0.01232623402029276</v>
+        <v>0.00265221856534481</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.03497708961367607</v>
+        <v>0.04573382064700127</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.02203094586730003</v>
+        <v>0.08424657583236694</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.02978231012821198</v>
+        <v>0.02067575044929981</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.01223772019147873</v>
+        <v>0.004018025938421488</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.02051694691181183</v>
+        <v>0.01405244693160057</v>
       </c>
       <c r="FU6" t="n">
-        <v>0.009023632854223251</v>
+        <v>0.01139726117253304</v>
       </c>
       <c r="FV6" t="n">
-        <v>0.008365990594029427</v>
+        <v>0.05334574729204178</v>
       </c>
       <c r="FW6" t="n">
-        <v>0.03027339465916157</v>
+        <v>0.03618868440389633</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.02481209114193916</v>
+        <v>0.02290366776287556</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.02630928158760071</v>
+        <v>0.06517157703638077</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.01835670322179794</v>
+        <v>0.01106620114296675</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.0126294894143939</v>
+        <v>0.00643613189458847</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.001214297488331795</v>
+        <v>0.01399582624435425</v>
       </c>
       <c r="GC6" t="n">
-        <v>0.006135919596999884</v>
+        <v>0.1006158888339996</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.02152064256370068</v>
+        <v>0.04146204143762589</v>
       </c>
       <c r="GE6" t="n">
-        <v>0.007633997593075037</v>
+        <v>0.08630878478288651</v>
       </c>
       <c r="GF6" t="n">
-        <v>0.009541269391775131</v>
+        <v>0.03171105682849884</v>
       </c>
       <c r="GG6" t="n">
-        <v>0.02127533778548241</v>
+        <v>0.008207998238503933</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.05517876148223877</v>
+        <v>0.01553677208721638</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01283833291381598</v>
+        <v>0.3246742784976959</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001692953752353787</v>
+        <v>0.03298629075288773</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01830881834030151</v>
+        <v>0.2208586484193802</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02051105536520481</v>
+        <v>0.1181716769933701</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0001119582448154688</v>
+        <v>0.05183893814682961</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02216245979070663</v>
+        <v>0.01862822845578194</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001421909197233617</v>
+        <v>0.01174455136060715</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001843197969719768</v>
+        <v>0.008197015151381493</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05243527144193649</v>
+        <v>0.01469456311315298</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003346221055835485</v>
+        <v>0.2680832743644714</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01115634012967348</v>
+        <v>0.003742560278624296</v>
       </c>
       <c r="M7" t="n">
-        <v>0.009289488196372986</v>
+        <v>0.20633764564991</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03133226931095123</v>
+        <v>0.1356692910194397</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01181422360241413</v>
+        <v>0.03427775204181671</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03232719376683235</v>
+        <v>0.01558863185346127</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.001396129839122295</v>
+        <v>0.06653745472431183</v>
       </c>
       <c r="R7" t="n">
-        <v>0.006564732640981674</v>
+        <v>0.04028979688882828</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001872827648185194</v>
+        <v>0.005891289561986923</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0003176466270815581</v>
+        <v>0.06633638590574265</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0009524308843538165</v>
+        <v>0.0339445061981678</v>
       </c>
       <c r="V7" t="n">
-        <v>0.004931650590151548</v>
+        <v>0.01378082484006882</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0005387623095884919</v>
+        <v>0.05662358924746513</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001909727230668068</v>
+        <v>0.06066049635410309</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.006604897789657116</v>
+        <v>0.04437525570392609</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.001936196582391858</v>
+        <v>0.01650749519467354</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.001871419022791088</v>
+        <v>0.02099256217479706</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.005618308205157518</v>
+        <v>0.03811749815940857</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.001350929029285908</v>
+        <v>0.03895321488380432</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.004749135579913855</v>
+        <v>0.007150211837142706</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.002403395017609</v>
+        <v>0.002114383969455957</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.002421573270112276</v>
+        <v>0.01771051622927189</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0007306270999833941</v>
+        <v>0.01914722472429276</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.004024118185043335</v>
+        <v>0.03601496294140816</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.004604645539075136</v>
+        <v>0.005234431475400925</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.002269323449581861</v>
+        <v>0.01485769730061293</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.01008969359099865</v>
+        <v>0.02146148309111595</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.001194385811686516</v>
+        <v>0.03931284323334694</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.003101125359535217</v>
+        <v>0.005509860347956419</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.003110566409304738</v>
+        <v>0.02381112240254879</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.004357939120382071</v>
+        <v>0.003320668358355761</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.00190873839892447</v>
+        <v>0.03095110133290291</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0009308129665441811</v>
+        <v>0.02381951734423637</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.004646036773920059</v>
+        <v>0.03461673110723495</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.65553462668322e-05</v>
+        <v>0.02306779846549034</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.02811397053301334</v>
+        <v>0.02881176769733429</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.0007488006958737969</v>
+        <v>0.2277714312076569</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.007776649668812752</v>
+        <v>0.01579220034182072</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.0062553477473557</v>
+        <v>0.04549454152584076</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.00144633324816823</v>
+        <v>0.0157940499484539</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.009685665369033813</v>
+        <v>0.00948777049779892</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.0009383109863847494</v>
+        <v>0.001252328045666218</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.007926470600068569</v>
+        <v>0.06416169553995132</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.006000516004860401</v>
+        <v>0.01846905052661896</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.01745985075831413</v>
+        <v>0.02577758952975273</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.000798236986156553</v>
+        <v>0.03374209627509117</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.003605475183576345</v>
+        <v>0.05516134202480316</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.004546361044049263</v>
+        <v>0.04635014757514</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.01768816262483597</v>
+        <v>0.1127699092030525</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.008344575762748718</v>
+        <v>0.01519889291375875</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.009724701754748821</v>
+        <v>0.07578258961439133</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.01956517435610294</v>
+        <v>0.07588331401348114</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.003085865173488855</v>
+        <v>0.02172918803989887</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.01042408589273691</v>
+        <v>0.07082401216030121</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.003902946365997195</v>
+        <v>0.01251776609569788</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.003937965724617243</v>
+        <v>0.000974675000179559</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.001576976967044175</v>
+        <v>0.002539209323003888</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.005871252156794071</v>
+        <v>0.03465893492102623</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.001017833594232798</v>
+        <v>0.01921490579843521</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.000700063188560307</v>
+        <v>0.03888216987252235</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.0005810702568851411</v>
+        <v>0.05201374366879463</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.0003272167523391545</v>
+        <v>0.02124561183154583</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.02099813893437386</v>
+        <v>0.02275449968874454</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.007251822855323553</v>
+        <v>0.1304494440555573</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.003854763926938176</v>
+        <v>0.0191759280860424</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.009352107532322407</v>
+        <v>0.01153988391160965</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.003532697446644306</v>
+        <v>0.0227962750941515</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.002209991915151477</v>
+        <v>0.01835884526371956</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.006391939241439104</v>
+        <v>0.004697786644101143</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.004693556111305952</v>
+        <v>0.01555224973708391</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.001268844236619771</v>
+        <v>0.01647810451686382</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.01113251782953739</v>
+        <v>0.005977880209684372</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.004632099997252226</v>
+        <v>0.04918923601508141</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.0005797439953312278</v>
+        <v>0.00674500735476613</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.002367274602875113</v>
+        <v>0.03357046470046043</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.003774387529119849</v>
+        <v>0.009346290491521358</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.00115964119322598</v>
+        <v>0.005223272368311882</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.003176098223775625</v>
+        <v>0.02254709973931313</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.002231948776170611</v>
+        <v>0.0001632631756365299</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.001285885227844119</v>
+        <v>0.007986264303326607</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.006715129129588604</v>
+        <v>0.05146179348230362</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.01100568193942308</v>
+        <v>0.01248551160097122</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.001834614435210824</v>
+        <v>0.007895327173173428</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.00649570906534791</v>
+        <v>0.07294417917728424</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.002267508767545223</v>
+        <v>0.07918274402618408</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.002048881724476814</v>
+        <v>0.06956375390291214</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.007546233013272285</v>
+        <v>0.01141375489532948</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.00904475711286068</v>
+        <v>0.04955394938588142</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.0001908779959194362</v>
+        <v>0.01054047606885433</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.01015851460397243</v>
+        <v>0.003061925992369652</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.003588014049455523</v>
+        <v>0.05447560921311378</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.0008217470021918416</v>
+        <v>0.01460395660251379</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.0009074108093045652</v>
+        <v>0.0444282591342926</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.001006118138320744</v>
+        <v>0.005135221406817436</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.002102062106132507</v>
+        <v>0.01546394638717175</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.003258937038481236</v>
+        <v>0.02543693594634533</v>
       </c>
       <c r="DC7" t="n">
-        <v>5.980626156087965e-05</v>
+        <v>0.004744221456348896</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.001314424211159348</v>
+        <v>0.0004020398482680321</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.002139200689271092</v>
+        <v>0.005939197726547718</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.01787338964641094</v>
+        <v>0.0682576522231102</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.001678495085798204</v>
+        <v>0.02437205612659454</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.005860904231667519</v>
+        <v>0.09255193918943405</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.01137712225317955</v>
+        <v>0.1318951547145844</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.004017578437924385</v>
+        <v>0.007799382787197828</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.00107666989788413</v>
+        <v>0.01113903429359198</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.002155084162950516</v>
+        <v>0.02533969655632973</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.003470676485449076</v>
+        <v>0.02441796660423279</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.001997314859181643</v>
+        <v>0.01022432185709476</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.004469876643270254</v>
+        <v>0.04413928091526031</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.001120505388826132</v>
+        <v>0.0408998541533947</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.001329680089838803</v>
+        <v>0.02179502323269844</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.004707373678684235</v>
+        <v>0.06255939602851868</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.0006699748337268829</v>
+        <v>0.003199012018740177</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.002857098123058677</v>
+        <v>0.002317187841981649</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.0009993183193728328</v>
+        <v>0.01445528864860535</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.0022256039083004</v>
+        <v>0.01141994632780552</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.00241830525919795</v>
+        <v>0.01806297898292542</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.001907406141981483</v>
+        <v>0.00798125471919775</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.008374691009521484</v>
+        <v>0.0467703752219677</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.00138129573315382</v>
+        <v>0.01039709523320198</v>
       </c>
       <c r="EA7" t="n">
-        <v>6.229267455637455e-06</v>
+        <v>0.03675123676657677</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.001154226833023131</v>
+        <v>0.02863191068172455</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.005251479335129261</v>
+        <v>0.005882307887077332</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.004682054743170738</v>
+        <v>0.03054618835449219</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.0009899353608489037</v>
+        <v>0.003973583225160837</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.01703548058867455</v>
+        <v>0.00478716753423214</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.005288647022098303</v>
+        <v>0.04427479207515717</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.0001907503174152225</v>
+        <v>0.006658046040683985</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.005766766145825386</v>
+        <v>0.02837828360497952</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.0002940099220722914</v>
+        <v>0.09126313030719757</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.002306935843080282</v>
+        <v>0.004756069742143154</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.0004905347595922649</v>
+        <v>0.04653575271368027</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.004599649924784899</v>
+        <v>0.007478091865777969</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.004466283600777388</v>
+        <v>0.01111418195068836</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.0004308874777052552</v>
+        <v>0.003695574356243014</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.0006211926811374724</v>
+        <v>0.02857118472456932</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.005456984974443913</v>
+        <v>0.03931061923503876</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.00435950979590416</v>
+        <v>0.03666131198406219</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.003763822605833411</v>
+        <v>0.03336169943213463</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.005002421792596579</v>
+        <v>0.04648436233401299</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.004147910512983799</v>
+        <v>0.02759884297847748</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.0009852236835286021</v>
+        <v>0.007819603197276592</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.00342196598649025</v>
+        <v>0.007188713178038597</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.01189421396702528</v>
+        <v>0.002870652358978987</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.00259969849139452</v>
+        <v>0.05661601200699806</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.001173660857602954</v>
+        <v>0.005832502618432045</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.001251470646820962</v>
+        <v>0.04266376793384552</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.002823267364874482</v>
+        <v>0.005297894589602947</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.001461883774027228</v>
+        <v>0.01353409979492426</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.002122474601492286</v>
+        <v>0.02829105779528618</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.002530310302972794</v>
+        <v>0.005187994800508022</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.0002520896669011563</v>
+        <v>0.006574118509888649</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.008007372729480267</v>
+        <v>0.006712157744914293</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.001630531391128898</v>
+        <v>0.01950161717832088</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.001995322294533253</v>
+        <v>0.008315927349030972</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.003323317505419254</v>
+        <v>0.02389886043965816</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.0007247812463901937</v>
+        <v>0.01536370813846588</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.008350105956196785</v>
+        <v>0.01589903049170971</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.001671652193181217</v>
+        <v>0.001726501621305943</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.002074608113616705</v>
+        <v>0.009671379812061787</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.001500911894254386</v>
+        <v>0.02545376308262348</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.001370114274322987</v>
+        <v>0.0005235979333519936</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.006216042675077915</v>
+        <v>0.002909008646383882</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.00719858705997467</v>
+        <v>0.009075908921658993</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.01295153703540564</v>
+        <v>0.02276140451431274</v>
       </c>
       <c r="FT7" t="n">
-        <v>7.541384547948837e-05</v>
+        <v>0.03175828605890274</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.003397686872631311</v>
+        <v>0.002016801387071609</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.001650620019063354</v>
+        <v>0.05716662853956223</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.007772729266434908</v>
+        <v>0.02251607179641724</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.0005022616242058575</v>
+        <v>0.02150349505245686</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.00853031687438488</v>
+        <v>0.02952164225280285</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.003268910571932793</v>
+        <v>0.01520632673054934</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.000993664376437664</v>
+        <v>0.02027116902172565</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.01066413708031178</v>
+        <v>0.02066707611083984</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.007179327309131622</v>
+        <v>0.02084376476705074</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.001046003540977836</v>
+        <v>0.02533010020852089</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.0008890564786270261</v>
+        <v>0.09630932658910751</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.0004083292442373931</v>
+        <v>0.02507166564464569</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.001010582898743451</v>
+        <v>0.01245689392089844</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.05593325942754745</v>
+        <v>0.002229845151305199</v>
       </c>
       <c r="B8" t="n">
-        <v>0.000187247060239315</v>
+        <v>0.03087601438164711</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06083442270755768</v>
+        <v>0.002673916751518846</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01955614797770977</v>
+        <v>0.0148210683837533</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02976592071354389</v>
+        <v>0.002538510598242283</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004463369492441416</v>
+        <v>0.01915733329951763</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001977126114070415</v>
+        <v>0.0004482034128159285</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01502249110490084</v>
+        <v>0.01003915257751942</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0129138920456171</v>
+        <v>0.001948342425748706</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06005506590008736</v>
+        <v>0.006585059221833944</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00634430069476366</v>
+        <v>0.02441627904772758</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06993706524372101</v>
+        <v>0.0009693439933471382</v>
       </c>
       <c r="M8" t="n">
-        <v>0.009257701225578785</v>
+        <v>0.0140420887619257</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0002037342637777328</v>
+        <v>0.002368811285123229</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0001518952776677907</v>
+        <v>0.02140353247523308</v>
       </c>
       <c r="P8" t="n">
-        <v>0.005920068360865116</v>
+        <v>0.001743101049214602</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01706201769411564</v>
+        <v>0.0009494652040302753</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02098149992525578</v>
+        <v>0.00198216550052166</v>
       </c>
       <c r="S8" t="n">
-        <v>0.004146314226090908</v>
+        <v>0.00241448450833559</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01856576837599277</v>
+        <v>0.004592868033796549</v>
       </c>
       <c r="U8" t="n">
-        <v>0.00510124210268259</v>
+        <v>0.001943579874932766</v>
       </c>
       <c r="V8" t="n">
-        <v>0.002539338544011116</v>
+        <v>0.0002203476033173501</v>
       </c>
       <c r="W8" t="n">
-        <v>0.009974106214940548</v>
+        <v>0.001313783344812691</v>
       </c>
       <c r="X8" t="n">
-        <v>5.701079498976469e-05</v>
+        <v>0.0007767742499709129</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.000563623383641243</v>
+        <v>0.003242193255573511</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.01498079020529985</v>
+        <v>0.002710959641262889</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.00567117054015398</v>
+        <v>0.001637774985283613</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.001187455607578158</v>
+        <v>0.001677593449130654</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.003212223760783672</v>
+        <v>0.004781659226864576</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.014090895652771</v>
+        <v>0.0001875403977464885</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.005301025230437517</v>
+        <v>0.0004251234931871295</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.01120094023644924</v>
+        <v>0.001965068513527513</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.004557698965072632</v>
+        <v>0.003388423006981611</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0007856101728975773</v>
+        <v>0.001752510783262551</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.02470110356807709</v>
+        <v>0.00188314716797322</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.01462905202060938</v>
+        <v>0.001205424079671502</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.01668927818536758</v>
+        <v>0.002434864174574614</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.01420866418629885</v>
+        <v>0.005218497011810541</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.005456887651234865</v>
+        <v>0.0003798832185566425</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.01051225699484348</v>
+        <v>0.001519645098596811</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.005249300505965948</v>
+        <v>0.004119849298149347</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.002849962096661329</v>
+        <v>0.004661980085074902</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.001502766041085124</v>
+        <v>0.00175646529532969</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.007868358865380287</v>
+        <v>0.001914343563839793</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0001357853470835835</v>
+        <v>0.004038885701447725</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.02744251117110252</v>
+        <v>0.001704959431663156</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.0126169566065073</v>
+        <v>0.01969866827130318</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.03138386830687523</v>
+        <v>0.00033425388392061</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.01011620461940765</v>
+        <v>0.0004305198090150952</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.003016374539583921</v>
+        <v>0.002245359122753143</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.0214034803211689</v>
+        <v>0.01443356927484274</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.01191742904484272</v>
+        <v>0.003826883621513844</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.009537597186863422</v>
+        <v>0.005961858667433262</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.007873625494539738</v>
+        <v>0.005125768948346376</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.00888945534825325</v>
+        <v>0.0008480867836624384</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.00219808891415596</v>
+        <v>0.005901495460420847</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.02187038399279118</v>
+        <v>0.008111624047160149</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0004696255491580814</v>
+        <v>0.004006081726402044</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0163578949868679</v>
+        <v>0.008186819031834602</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.009819120168685913</v>
+        <v>0.005844155326485634</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.008787805214524269</v>
+        <v>0.002459231065586209</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.01189440954476595</v>
+        <v>0.006455097813159227</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.004859223030507565</v>
+        <v>0.002480663824826479</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.007833566516637802</v>
+        <v>0.0001818640303099528</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.002223359420895576</v>
+        <v>0.001946880947798491</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.01481537334620953</v>
+        <v>0.00390668585896492</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0005407247808761895</v>
+        <v>0.003107783850282431</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.02096023596823215</v>
+        <v>0.0003173144650645554</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.006577620282769203</v>
+        <v>0.001035268534906209</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.0001160901738330722</v>
+        <v>0.00290660560131073</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.0108214383944869</v>
+        <v>0.002054509241133928</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.001292454428039491</v>
+        <v>4.153861664235592e-05</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.02609505690634251</v>
+        <v>0.001250541536137462</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.003641744842752814</v>
+        <v>0.009940257295966148</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.01389926485717297</v>
+        <v>0.004270616918802261</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.01129054185003042</v>
+        <v>0.0004331453237682581</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.007008347660303116</v>
+        <v>0.002071622526273131</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.006296717561781406</v>
+        <v>0.006616040132939816</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.004678801633417606</v>
+        <v>0.001327976817265153</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.003528192173689604</v>
+        <v>0.003513654693961143</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.003326823003590107</v>
+        <v>0.003572984132915735</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.0119665153324604</v>
+        <v>0.0002355419564992189</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.01061301119625568</v>
+        <v>0.005539456382393837</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.009636713191866875</v>
+        <v>0.003374658524990082</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.001943629235029221</v>
+        <v>0.002712148008868098</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.003400946268811822</v>
+        <v>0.001916660461574793</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.00309075484983623</v>
+        <v>0.002502024406567216</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.0003381278365850449</v>
+        <v>0.002490667160600424</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.003728466108441353</v>
+        <v>0.001454648561775684</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.000867609865963459</v>
+        <v>0.001641926704905927</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.005567799787968397</v>
+        <v>0.004126413259655237</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.00861789844930172</v>
+        <v>0.001119192223995924</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.001639809226617217</v>
+        <v>0.00075813930016011</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.0004608903545886278</v>
+        <v>0.008148989640176296</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.00754208117723465</v>
+        <v>0.001735506346449256</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.001345445518381894</v>
+        <v>0.0007656860398128629</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.00546066602692008</v>
+        <v>0.0049416976980865</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.005942421965301037</v>
+        <v>0.00558628560975194</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.01058371271938086</v>
+        <v>0.0007352461107075214</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.009907220490276814</v>
+        <v>9.045543265528977e-05</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.008904920890927315</v>
+        <v>0.004914874676615</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.01167799718677998</v>
+        <v>0.003436391474679112</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.001071970793418586</v>
+        <v>0.00409940630197525</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.01045636925846338</v>
+        <v>0.00188560807146132</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.002985682105645537</v>
+        <v>0.002772362669929862</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.0007954569300636649</v>
+        <v>0.002015781123191118</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.002947720000520349</v>
+        <v>0.002778727328404784</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.001633547130040824</v>
+        <v>0.001473316922783852</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.004162843804806471</v>
+        <v>0.003559024073183537</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.03547867387533188</v>
+        <v>0.001935458625666797</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.007314597256481647</v>
+        <v>0.0006319943349808455</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.0006097857840359211</v>
+        <v>0.005731379613280296</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.006360748317092657</v>
+        <v>1.633816282264888e-05</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.001588105689734221</v>
+        <v>0.00350335449911654</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.006594935432076454</v>
+        <v>0.003729488933458924</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.008394048549234867</v>
+        <v>0.007653752807527781</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.009426471777260303</v>
+        <v>0.003594352863729</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.002762398216873407</v>
+        <v>0.001838167430832982</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.01450619008392096</v>
+        <v>0.0007463846122846007</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.003344511846080422</v>
+        <v>0.00329028582200408</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.001110921381041408</v>
+        <v>0.002997264731675386</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.007045459933578968</v>
+        <v>0.001003387151286006</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.00472542829811573</v>
+        <v>0.000886131078004837</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.004689896013587713</v>
+        <v>0.001465413020923734</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.002096829237416387</v>
+        <v>0.0005547984037548304</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.004246997646987438</v>
+        <v>0.00286951893940568</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.0007790181552991271</v>
+        <v>0.001120379660278559</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.001575088361278176</v>
+        <v>0.002332506235688925</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.004073279444128275</v>
+        <v>0.003724466543644667</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.004680086858570576</v>
+        <v>0.00392201030626893</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.004294570535421371</v>
+        <v>0.0007092097075656056</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.002388242166489363</v>
+        <v>0.0004075614269822836</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.001694145961664617</v>
+        <v>0.001257239142432809</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.007061814423650503</v>
+        <v>0.0005759017658419907</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.002982227364555001</v>
+        <v>0.001968691125512123</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.01928176730871201</v>
+        <v>0.001520460238680243</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.005586469080299139</v>
+        <v>0.004272979684174061</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.01021604984998703</v>
+        <v>0.001866906997747719</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.002253764076158404</v>
+        <v>0.001163851469755173</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.003735298058018088</v>
+        <v>0.0002106213651131839</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.01344879250973463</v>
+        <v>0.0003026289632543921</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.002293196273967624</v>
+        <v>0.004274735227227211</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.009325709193944931</v>
+        <v>0.0008010109304450452</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.006800446193665266</v>
+        <v>0.0002430998429190367</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.003169416915625334</v>
+        <v>0.0002863158006221056</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.0122119328007102</v>
+        <v>0.002371483715251088</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.007935548201203346</v>
+        <v>0.004327839706093073</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.003457491286098957</v>
+        <v>0.002577440347522497</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.01097334921360016</v>
+        <v>0.002038962207734585</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.01197750866413116</v>
+        <v>0.002348611829802394</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.007359670009464025</v>
+        <v>0.003397181630134583</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.002601128537207842</v>
+        <v>0.005238152109086514</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.007862502709031105</v>
+        <v>0.001338858157396317</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.01226127147674561</v>
+        <v>0.0004177575756330043</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.007889028638601303</v>
+        <v>0.004593012388795614</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.01205247268080711</v>
+        <v>0.002516754902899265</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.002212242456153035</v>
+        <v>0.002345819724723697</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.005099845118820667</v>
+        <v>0.001966949552297592</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.0006899732397869229</v>
+        <v>0.002263432135805488</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.0001781443133950233</v>
+        <v>0.00310119055211544</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.005171739961951971</v>
+        <v>0.001693319529294968</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.002825631992891431</v>
+        <v>0.002584842965006828</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.009892216883599758</v>
+        <v>0.0001583582197781652</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.007641321048140526</v>
+        <v>0.001774804899469018</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.006522959098219872</v>
+        <v>0.003927034325897694</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.01979395374655724</v>
+        <v>0.007229256443679333</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.006186753511428833</v>
+        <v>0.00193546456284821</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.01088757067918777</v>
+        <v>0.003737025894224644</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.001356195425614715</v>
+        <v>0.0001994384219869971</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.005485138855874538</v>
+        <v>0.0004243833245709538</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.006710762158036232</v>
+        <v>0.003067226149141788</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.004040171392261982</v>
+        <v>0.00244303303770721</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.03225961327552795</v>
+        <v>0.007912472821772099</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.003324689343571663</v>
+        <v>0.001841203309595585</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.014067392796278</v>
+        <v>0.00198679231107235</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.009047403000295162</v>
+        <v>0.0009541825274936855</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.005461115855723619</v>
+        <v>0.005316657945513725</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.004300964064896107</v>
+        <v>0.003853647271171212</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.01222197525203228</v>
+        <v>0.003888336475938559</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.005782769992947578</v>
+        <v>0.001526491483673453</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.004754831083118916</v>
+        <v>0.005586768500506878</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.001744723413139582</v>
+        <v>0.001550095272250473</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.001619909889996052</v>
+        <v>0.0009570543770678341</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.0001605839934200048</v>
+        <v>0.0004366700304672122</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.00628290232270956</v>
+        <v>0.002484039170667529</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.01511153765022755</v>
+        <v>0.004613971337676048</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.004905530251562595</v>
+        <v>0.01175856031477451</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.005385099444538355</v>
+        <v>0.001510399044491351</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.002145295264199376</v>
+        <v>0.001917184796184301</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0002094461669912562</v>
+        <v>2.701530320337042e-06</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0001029000704875216</v>
+        <v>0.003750470466911793</v>
       </c>
       <c r="C9" t="n">
-        <v>9.87192561296979e-06</v>
+        <v>0.0005409479490481317</v>
       </c>
       <c r="D9" t="n">
-        <v>0.000109689004602842</v>
+        <v>0.002281212946400046</v>
       </c>
       <c r="E9" t="n">
-        <v>4.395126961753704e-05</v>
+        <v>0.0009111390681937337</v>
       </c>
       <c r="F9" t="n">
-        <v>2.568727359175682e-05</v>
+        <v>4.298991552786902e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001600194373168051</v>
+        <v>0.0003873544628731906</v>
       </c>
       <c r="H9" t="n">
-        <v>4.87328834424261e-05</v>
+        <v>0.0004742139135487378</v>
       </c>
       <c r="I9" t="n">
-        <v>4.178280960331904e-06</v>
+        <v>0.0001862666103988886</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0002146044134860858</v>
+        <v>0.0002756290487013757</v>
       </c>
       <c r="K9" t="n">
-        <v>5.546327520278282e-05</v>
+        <v>0.003027528757229447</v>
       </c>
       <c r="L9" t="n">
-        <v>6.625468085985631e-05</v>
+        <v>0.0001649795158300549</v>
       </c>
       <c r="M9" t="n">
-        <v>1.952720049303025e-05</v>
+        <v>0.002128837164491415</v>
       </c>
       <c r="N9" t="n">
-        <v>7.131411985028535e-05</v>
+        <v>0.001123161753639579</v>
       </c>
       <c r="O9" t="n">
-        <v>7.781392923789099e-05</v>
+        <v>0.000337215926265344</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0001714306854410097</v>
+        <v>0.0002509881160221994</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.692091245786287e-05</v>
+        <v>0.0003187533875461668</v>
       </c>
       <c r="R9" t="n">
-        <v>4.685352178057656e-05</v>
+        <v>0.0001163092092610896</v>
       </c>
       <c r="S9" t="n">
-        <v>2.558013329689857e-05</v>
+        <v>0.000149908839375712</v>
       </c>
       <c r="T9" t="n">
-        <v>2.947264874819666e-06</v>
+        <v>0.0006641588406637311</v>
       </c>
       <c r="U9" t="n">
-        <v>1.069334666681243e-05</v>
+        <v>3.174964149366133e-05</v>
       </c>
       <c r="V9" t="n">
-        <v>2.023427214226103e-06</v>
+        <v>0.0001202370622195303</v>
       </c>
       <c r="W9" t="n">
-        <v>3.671531521831639e-05</v>
+        <v>0.0003659032809082419</v>
       </c>
       <c r="X9" t="n">
-        <v>1.705482463876251e-05</v>
+        <v>0.0003327080339659005</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.751157393911853e-05</v>
+        <v>0.000385740480851382</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.779565354809165e-05</v>
+        <v>7.491777068935335e-05</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.537388344440842e-06</v>
+        <v>0.0002031333569902927</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.139516072929837e-05</v>
+        <v>0.0005500711849890649</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.25720997757162e-06</v>
+        <v>0.0007003794889897108</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.59925693878904e-05</v>
+        <v>0.0001316413545282558</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.538993456051685e-05</v>
+        <v>5.847310603712685e-05</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.706957745132968e-05</v>
+        <v>6.979412864893675e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.329992664977908e-05</v>
+        <v>0.0001825483050197363</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.719262041267939e-07</v>
+        <v>0.0001758928847266361</v>
       </c>
       <c r="AI9" t="n">
-        <v>3.368684701854363e-06</v>
+        <v>9.881059668259695e-05</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.842134406615514e-05</v>
+        <v>2.02763476409018e-06</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.521153171779588e-05</v>
+        <v>0.0001437236642232165</v>
       </c>
       <c r="AL9" t="n">
-        <v>2.215090489698923e-06</v>
+        <v>0.0004445418599061668</v>
       </c>
       <c r="AM9" t="n">
-        <v>3.63639719580533e-06</v>
+        <v>1.847401472332422e-05</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.199650745955296e-05</v>
+        <v>7.142481626942754e-05</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.354438336420571e-05</v>
+        <v>0.0002104712912114337</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.461920055589871e-05</v>
+        <v>0.0003877775452565402</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.796615833882242e-07</v>
+        <v>0.0002269084798172116</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.593508568475954e-05</v>
+        <v>0.000349438632838428</v>
       </c>
       <c r="AS9" t="n">
-        <v>7.176354756666115e-06</v>
+        <v>0.0001216955861309543</v>
       </c>
       <c r="AT9" t="n">
-        <v>8.032600453589112e-05</v>
+        <v>0.0003147754759993404</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.315331792284269e-05</v>
+        <v>0.00263484288007021</v>
       </c>
       <c r="AV9" t="n">
-        <v>3.835400639218278e-05</v>
+        <v>9.19033627724275e-05</v>
       </c>
       <c r="AW9" t="n">
-        <v>7.582403486594558e-05</v>
+        <v>0.0006309565505944192</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.283370460849255e-06</v>
+        <v>1.812235677789431e-05</v>
       </c>
       <c r="AY9" t="n">
-        <v>6.443669553846121e-05</v>
+        <v>0.0002255997533211485</v>
       </c>
       <c r="AZ9" t="n">
-        <v>1.715887378850312e-06</v>
+        <v>0.0001364720810670406</v>
       </c>
       <c r="BA9" t="n">
-        <v>3.460571315372363e-05</v>
+        <v>0.000131706619868055</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.635845910641365e-05</v>
+        <v>6.648538692388684e-05</v>
       </c>
       <c r="BC9" t="n">
-        <v>6.512030813610181e-05</v>
+        <v>0.0003117989399470389</v>
       </c>
       <c r="BD9" t="n">
-        <v>4.681891368818469e-06</v>
+        <v>0.0007247740868479013</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.89302081707865e-05</v>
+        <v>0.0006611464777961373</v>
       </c>
       <c r="BF9" t="n">
-        <v>3.900989759131335e-05</v>
+        <v>0.0004570257151499391</v>
       </c>
       <c r="BG9" t="n">
-        <v>8.156342664733529e-05</v>
+        <v>0.001022514188662171</v>
       </c>
       <c r="BH9" t="n">
-        <v>5.219181912252679e-05</v>
+        <v>4.389424429973587e-05</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.0001012942666420713</v>
+        <v>0.0004873302823398262</v>
       </c>
       <c r="BJ9" t="n">
-        <v>9.47025473578833e-05</v>
+        <v>0.000314332137349993</v>
       </c>
       <c r="BK9" t="n">
-        <v>6.894187663419871e-06</v>
+        <v>8.182712190318853e-05</v>
       </c>
       <c r="BL9" t="n">
-        <v>4.730890213977545e-05</v>
+        <v>0.0005683651543222368</v>
       </c>
       <c r="BM9" t="n">
-        <v>5.070329734735424e-06</v>
+        <v>0.0004792566760443151</v>
       </c>
       <c r="BN9" t="n">
-        <v>2.16253029066138e-05</v>
+        <v>0.0003251738962717354</v>
       </c>
       <c r="BO9" t="n">
-        <v>6.060013220121618e-07</v>
+        <v>8.978921687230468e-05</v>
       </c>
       <c r="BP9" t="n">
-        <v>1.012476968753617e-05</v>
+        <v>0.0004932816373184323</v>
       </c>
       <c r="BQ9" t="n">
-        <v>1.880877971416339e-05</v>
+        <v>0.0003000476281158626</v>
       </c>
       <c r="BR9" t="n">
-        <v>1.825217441364657e-05</v>
+        <v>2.848737494787201e-06</v>
       </c>
       <c r="BS9" t="n">
-        <v>1.533794784336351e-05</v>
+        <v>8.479255484417081e-05</v>
       </c>
       <c r="BT9" t="n">
-        <v>1.215388601849554e-05</v>
+        <v>0.0001811138936318457</v>
       </c>
       <c r="BU9" t="n">
-        <v>7.727506454102695e-05</v>
+        <v>0.0002019673702307045</v>
       </c>
       <c r="BV9" t="n">
-        <v>1.842800520535093e-05</v>
+        <v>0.001342743285931647</v>
       </c>
       <c r="BW9" t="n">
-        <v>1.28668689285405e-05</v>
+        <v>0.0006123567000031471</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.0001252109941560775</v>
+        <v>0.0002640394377522171</v>
       </c>
       <c r="BY9" t="n">
-        <v>1.600741597940214e-06</v>
+        <v>0.0003193705924786627</v>
       </c>
       <c r="BZ9" t="n">
-        <v>9.990159014705569e-06</v>
+        <v>0.0002132038353011012</v>
       </c>
       <c r="CA9" t="n">
-        <v>2.091085480060428e-05</v>
+        <v>0.0001811857509892434</v>
       </c>
       <c r="CB9" t="n">
-        <v>3.146459130221047e-05</v>
+        <v>0.0001100529116229154</v>
       </c>
       <c r="CC9" t="n">
-        <v>1.851202432590071e-05</v>
+        <v>9.508074435871094e-05</v>
       </c>
       <c r="CD9" t="n">
-        <v>3.181316424161196e-05</v>
+        <v>5.884251004317775e-05</v>
       </c>
       <c r="CE9" t="n">
-        <v>4.058103513671085e-05</v>
+        <v>0.0006673600873909891</v>
       </c>
       <c r="CF9" t="n">
-        <v>3.341539468237897e-06</v>
+        <v>0.0001407065865350887</v>
       </c>
       <c r="CG9" t="n">
-        <v>8.462166078970768e-06</v>
+        <v>0.000217272958252579</v>
       </c>
       <c r="CH9" t="n">
-        <v>1.431876808055677e-05</v>
+        <v>0.0001326463825535029</v>
       </c>
       <c r="CI9" t="n">
-        <v>1.310314564761939e-05</v>
+        <v>2.634824340930209e-05</v>
       </c>
       <c r="CJ9" t="n">
-        <v>1.896230605780147e-05</v>
+        <v>0.0001287580525968224</v>
       </c>
       <c r="CK9" t="n">
-        <v>4.136735242354916e-06</v>
+        <v>4.270687713869847e-05</v>
       </c>
       <c r="CL9" t="n">
-        <v>4.658728812501067e-06</v>
+        <v>5.592465822701342e-05</v>
       </c>
       <c r="CM9" t="n">
-        <v>1.685382630967069e-05</v>
+        <v>0.0008400364313274622</v>
       </c>
       <c r="CN9" t="n">
-        <v>2.210463935625739e-05</v>
+        <v>0.000517331063747406</v>
       </c>
       <c r="CO9" t="n">
-        <v>1.505299951531924e-05</v>
+        <v>5.329425039235502e-05</v>
       </c>
       <c r="CP9" t="n">
-        <v>1.886915197246708e-05</v>
+        <v>0.0007404111092910171</v>
       </c>
       <c r="CQ9" t="n">
-        <v>1.878623879747465e-05</v>
+        <v>0.0006584536749869585</v>
       </c>
       <c r="CR9" t="n">
-        <v>1.211238304676954e-05</v>
+        <v>0.0005568041815422475</v>
       </c>
       <c r="CS9" t="n">
-        <v>2.206183125963435e-05</v>
+        <v>0.0003463063621893525</v>
       </c>
       <c r="CT9" t="n">
-        <v>2.757445827228366e-06</v>
+        <v>0.0008537047542631626</v>
       </c>
       <c r="CU9" t="n">
-        <v>2.019389739871258e-06</v>
+        <v>0.0001074140309356153</v>
       </c>
       <c r="CV9" t="n">
-        <v>2.81842440017499e-05</v>
+        <v>6.210013089003041e-05</v>
       </c>
       <c r="CW9" t="n">
-        <v>3.891255255439319e-05</v>
+        <v>0.0005850633606314659</v>
       </c>
       <c r="CX9" t="n">
-        <v>1.133260866481578e-06</v>
+        <v>0.0002336906472919509</v>
       </c>
       <c r="CY9" t="n">
-        <v>9.837194738793187e-07</v>
+        <v>0.0003659126814454794</v>
       </c>
       <c r="CZ9" t="n">
-        <v>5.552674338105135e-07</v>
+        <v>0.0001521695521660149</v>
       </c>
       <c r="DA9" t="n">
-        <v>1.678204716881737e-05</v>
+        <v>5.321293792803772e-05</v>
       </c>
       <c r="DB9" t="n">
-        <v>2.524158117012121e-05</v>
+        <v>9.254295582650229e-05</v>
       </c>
       <c r="DC9" t="n">
-        <v>6.047297347322456e-07</v>
+        <v>5.446071372716688e-05</v>
       </c>
       <c r="DD9" t="n">
-        <v>4.20645255871932e-06</v>
+        <v>3.098288289038464e-06</v>
       </c>
       <c r="DE9" t="n">
-        <v>5.618777322524693e-06</v>
+        <v>0.0002882208791561425</v>
       </c>
       <c r="DF9" t="n">
-        <v>7.452889258274809e-05</v>
+        <v>0.0005337900365702808</v>
       </c>
       <c r="DG9" t="n">
-        <v>1.551722198200878e-05</v>
+        <v>0.00029367784736678</v>
       </c>
       <c r="DH9" t="n">
-        <v>1.146973772847559e-05</v>
+        <v>0.0009065544581972063</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.0001049559941748157</v>
+        <v>0.0002584594185464084</v>
       </c>
       <c r="DJ9" t="n">
-        <v>3.609077248256654e-05</v>
+        <v>2.359481732128188e-05</v>
       </c>
       <c r="DK9" t="n">
-        <v>5.394813797465758e-06</v>
+        <v>0.0002983066078741103</v>
       </c>
       <c r="DL9" t="n">
-        <v>1.756484562065452e-05</v>
+        <v>0.0001348756049992517</v>
       </c>
       <c r="DM9" t="n">
-        <v>2.075094926112797e-06</v>
+        <v>0.0003104376955889165</v>
       </c>
       <c r="DN9" t="n">
-        <v>2.200612652814016e-05</v>
+        <v>0.0001339468726655468</v>
       </c>
       <c r="DO9" t="n">
-        <v>3.491997995297424e-05</v>
+        <v>0.0003712250618264079</v>
       </c>
       <c r="DP9" t="n">
-        <v>6.773909717594506e-06</v>
+        <v>0.000120288270409219</v>
       </c>
       <c r="DQ9" t="n">
-        <v>1.200364840769907e-05</v>
+        <v>0.000234140723478049</v>
       </c>
       <c r="DR9" t="n">
-        <v>3.59546575054992e-05</v>
+        <v>0.0004665761953219771</v>
       </c>
       <c r="DS9" t="n">
-        <v>1.45186986628687e-05</v>
+        <v>0.0001422787754563615</v>
       </c>
       <c r="DT9" t="n">
-        <v>2.591879638202954e-05</v>
+        <v>0.0001094178587663919</v>
       </c>
       <c r="DU9" t="n">
-        <v>5.983474693493918e-08</v>
+        <v>9.720106754684821e-05</v>
       </c>
       <c r="DV9" t="n">
-        <v>1.726030859572347e-06</v>
+        <v>3.835819370578974e-06</v>
       </c>
       <c r="DW9" t="n">
-        <v>2.594110992504284e-05</v>
+        <v>2.175321060349233e-05</v>
       </c>
       <c r="DX9" t="n">
-        <v>1.957968925125897e-05</v>
+        <v>0.0002698720782063901</v>
       </c>
       <c r="DY9" t="n">
-        <v>3.756770092877559e-05</v>
+        <v>0.0001637622044654563</v>
       </c>
       <c r="DZ9" t="n">
-        <v>1.553978654555976e-05</v>
+        <v>1.720942782412749e-05</v>
       </c>
       <c r="EA9" t="n">
-        <v>4.452863504411653e-05</v>
+        <v>0.000672332476824522</v>
       </c>
       <c r="EB9" t="n">
-        <v>1.397358209942468e-05</v>
+        <v>0.0002353452291572466</v>
       </c>
       <c r="EC9" t="n">
-        <v>3.384201772860251e-05</v>
+        <v>0.0001064310636138543</v>
       </c>
       <c r="ED9" t="n">
-        <v>5.524568678083597e-06</v>
+        <v>3.665006079245359e-05</v>
       </c>
       <c r="EE9" t="n">
-        <v>6.471011147368699e-06</v>
+        <v>8.718045137356967e-06</v>
       </c>
       <c r="EF9" t="n">
-        <v>6.533793930429965e-05</v>
+        <v>1.325219636783004e-05</v>
       </c>
       <c r="EG9" t="n">
-        <v>2.738019611570053e-05</v>
+        <v>0.0005068461177870631</v>
       </c>
       <c r="EH9" t="n">
-        <v>2.026773472607601e-06</v>
+        <v>0.0001385636278428137</v>
       </c>
       <c r="EI9" t="n">
-        <v>1.998344487219583e-05</v>
+        <v>0.0004685415478888899</v>
       </c>
       <c r="EJ9" t="n">
-        <v>3.740640750038438e-06</v>
+        <v>0.0003691467572934926</v>
       </c>
       <c r="EK9" t="n">
-        <v>1.330270970356651e-05</v>
+        <v>6.786976882722229e-06</v>
       </c>
       <c r="EL9" t="n">
-        <v>2.267685431434074e-06</v>
+        <v>0.0001776498829713091</v>
       </c>
       <c r="EM9" t="n">
-        <v>2.865305759769399e-06</v>
+        <v>4.443717261892743e-05</v>
       </c>
       <c r="EN9" t="n">
-        <v>7.558578090538504e-06</v>
+        <v>3.658308924059384e-05</v>
       </c>
       <c r="EO9" t="n">
-        <v>5.215084001974901e-06</v>
+        <v>0.0001740030711516738</v>
       </c>
       <c r="EP9" t="n">
-        <v>6.163857324281707e-05</v>
+        <v>0.0004591374308802187</v>
       </c>
       <c r="EQ9" t="n">
-        <v>1.529011206002906e-05</v>
+        <v>0.0004662075079977512</v>
       </c>
       <c r="ER9" t="n">
-        <v>1.860332304204348e-06</v>
+        <v>0.0003209033457096666</v>
       </c>
       <c r="ES9" t="n">
-        <v>1.725364199955948e-05</v>
+        <v>0.0001981621608138084</v>
       </c>
       <c r="ET9" t="n">
-        <v>3.798258603637805e-06</v>
+        <v>4.296951738069765e-05</v>
       </c>
       <c r="EU9" t="n">
-        <v>1.927624543895945e-05</v>
+        <v>0.0002441683609504253</v>
       </c>
       <c r="EV9" t="n">
-        <v>2.944097286672331e-05</v>
+        <v>0.0001732237142277882</v>
       </c>
       <c r="EW9" t="n">
-        <v>9.606207640899811e-06</v>
+        <v>7.271675713127479e-05</v>
       </c>
       <c r="EX9" t="n">
-        <v>3.170272975694388e-05</v>
+        <v>6.440735887736082e-05</v>
       </c>
       <c r="EY9" t="n">
-        <v>3.04705863527488e-05</v>
+        <v>0.0006325456197373569</v>
       </c>
       <c r="EZ9" t="n">
-        <v>7.302863195945974e-06</v>
+        <v>0.0001308611826971173</v>
       </c>
       <c r="FA9" t="n">
-        <v>8.068105671554804e-06</v>
+        <v>0.0002906438312493265</v>
       </c>
       <c r="FB9" t="n">
-        <v>5.088149919174612e-06</v>
+        <v>0.0001029491832014173</v>
       </c>
       <c r="FC9" t="n">
-        <v>1.231280111824162e-05</v>
+        <v>0.0001255545066669583</v>
       </c>
       <c r="FD9" t="n">
-        <v>1.439264178770827e-05</v>
+        <v>0.0001411300181644037</v>
       </c>
       <c r="FE9" t="n">
-        <v>1.253887239727192e-05</v>
+        <v>6.078253500163555e-05</v>
       </c>
       <c r="FF9" t="n">
-        <v>7.068898412398994e-06</v>
+        <v>5.532414797926322e-05</v>
       </c>
       <c r="FG9" t="n">
-        <v>3.496649151202291e-05</v>
+        <v>6.721775571350008e-05</v>
       </c>
       <c r="FH9" t="n">
-        <v>1.286282895307522e-05</v>
+        <v>0.0001120715533033945</v>
       </c>
       <c r="FI9" t="n">
-        <v>1.985289054573514e-05</v>
+        <v>0.0002028353337664157</v>
       </c>
       <c r="FJ9" t="n">
-        <v>1.105205410567578e-05</v>
+        <v>0.0003232241433579475</v>
       </c>
       <c r="FK9" t="n">
-        <v>1.627532128622988e-06</v>
+        <v>0.0004318372521083802</v>
       </c>
       <c r="FL9" t="n">
-        <v>2.291418604727369e-05</v>
+        <v>0.0003692880272865295</v>
       </c>
       <c r="FM9" t="n">
-        <v>4.302900924813002e-05</v>
+        <v>0.0001166229485534132</v>
       </c>
       <c r="FN9" t="n">
-        <v>4.301682929508388e-05</v>
+        <v>3.488181391730905e-06</v>
       </c>
       <c r="FO9" t="n">
-        <v>8.488511411997024e-06</v>
+        <v>0.0002225003554485738</v>
       </c>
       <c r="FP9" t="n">
-        <v>1.265501123270951e-05</v>
+        <v>0.0002835536724887788</v>
       </c>
       <c r="FQ9" t="n">
-        <v>2.132735244231299e-05</v>
+        <v>0.0001109330332837999</v>
       </c>
       <c r="FR9" t="n">
-        <v>3.203222877345979e-05</v>
+        <v>0.0003763439599424601</v>
       </c>
       <c r="FS9" t="n">
-        <v>4.026487295050174e-05</v>
+        <v>3.842583828372881e-05</v>
       </c>
       <c r="FT9" t="n">
-        <v>2.101529571518768e-05</v>
+        <v>1.386093208566308e-05</v>
       </c>
       <c r="FU9" t="n">
-        <v>1.679123488429468e-05</v>
+        <v>8.288101525977254e-05</v>
       </c>
       <c r="FV9" t="n">
-        <v>2.974397284560837e-05</v>
+        <v>0.0001612588530406356</v>
       </c>
       <c r="FW9" t="n">
-        <v>4.161257675150409e-05</v>
+        <v>3.697583451867104e-05</v>
       </c>
       <c r="FX9" t="n">
-        <v>2.969345018755121e-07</v>
+        <v>0.0002630283124744892</v>
       </c>
       <c r="FY9" t="n">
-        <v>6.077469151932746e-05</v>
+        <v>0.0005154145183041692</v>
       </c>
       <c r="FZ9" t="n">
-        <v>6.009240678395145e-06</v>
+        <v>0.0001499297068221495</v>
       </c>
       <c r="GA9" t="n">
-        <v>1.890642124635633e-05</v>
+        <v>5.373440944822505e-05</v>
       </c>
       <c r="GB9" t="n">
-        <v>4.110759618924931e-05</v>
+        <v>4.025692760478705e-06</v>
       </c>
       <c r="GC9" t="n">
-        <v>2.828408105415292e-05</v>
+        <v>1.415920269209892e-05</v>
       </c>
       <c r="GD9" t="n">
-        <v>1.646898817853071e-05</v>
+        <v>0.0002659591846168041</v>
       </c>
       <c r="GE9" t="n">
-        <v>8.605720722698607e-06</v>
+        <v>0.0005989085766486824</v>
       </c>
       <c r="GF9" t="n">
-        <v>1.396914103679592e-05</v>
+        <v>9.414921805728227e-05</v>
       </c>
       <c r="GG9" t="n">
-        <v>1.897338916023728e-05</v>
+        <v>8.246633660746738e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.722007027638028e-06</v>
+        <v>0.008437216281890869</v>
       </c>
       <c r="B10" t="n">
-        <v>1.29378158817417e-05</v>
+        <v>0.009141985327005386</v>
       </c>
       <c r="C10" t="n">
-        <v>5.373157819121843e-06</v>
+        <v>0.01240007020533085</v>
       </c>
       <c r="D10" t="n">
-        <v>1.0102701253345e-06</v>
+        <v>0.0008906765142455697</v>
       </c>
       <c r="E10" t="n">
-        <v>6.831659447925631e-06</v>
+        <v>0.006329359486699104</v>
       </c>
       <c r="F10" t="n">
-        <v>1.857895426837786e-06</v>
+        <v>0.006566491443663836</v>
       </c>
       <c r="G10" t="n">
-        <v>5.616993803414516e-08</v>
+        <v>0.004992968868464231</v>
       </c>
       <c r="H10" t="n">
-        <v>1.143681629400817e-06</v>
+        <v>0.001286859391257167</v>
       </c>
       <c r="I10" t="n">
-        <v>2.711288402679202e-07</v>
+        <v>0.002342243678867817</v>
       </c>
       <c r="J10" t="n">
-        <v>7.794108114467235e-08</v>
+        <v>0.003761853091418743</v>
       </c>
       <c r="K10" t="n">
-        <v>1.019024784909561e-05</v>
+        <v>0.003922780510038137</v>
       </c>
       <c r="L10" t="n">
-        <v>2.775526581899612e-06</v>
+        <v>0.008984596468508244</v>
       </c>
       <c r="M10" t="n">
-        <v>5.593919922830537e-07</v>
+        <v>0.006041712127625942</v>
       </c>
       <c r="N10" t="n">
-        <v>6.538289198942948e-06</v>
+        <v>0.01008831895887852</v>
       </c>
       <c r="O10" t="n">
-        <v>9.928708095685579e-07</v>
+        <v>0.001868219580501318</v>
       </c>
       <c r="P10" t="n">
-        <v>9.891598438116489e-07</v>
+        <v>0.002410115674138069</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.190764346072683e-06</v>
+        <v>0.0004548549477476627</v>
       </c>
       <c r="R10" t="n">
-        <v>4.979693812856567e-07</v>
+        <v>0.005903958342969418</v>
       </c>
       <c r="S10" t="n">
-        <v>4.263085884304019e-07</v>
+        <v>0.003196145175024867</v>
       </c>
       <c r="T10" t="n">
-        <v>3.217463017790578e-06</v>
+        <v>0.005261320620775223</v>
       </c>
       <c r="U10" t="n">
-        <v>2.171083224311587e-06</v>
+        <v>0.006239109206944704</v>
       </c>
       <c r="V10" t="n">
-        <v>1.578426690684864e-06</v>
+        <v>0.00154496415052563</v>
       </c>
       <c r="W10" t="n">
-        <v>5.880647790945659e-07</v>
+        <v>0.0007433849386870861</v>
       </c>
       <c r="X10" t="n">
-        <v>4.997066866962996e-07</v>
+        <v>0.0006940951570868492</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.068964377599514e-08</v>
+        <v>0.0002670524118002504</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.123400693359144e-06</v>
+        <v>0.000866991002112627</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.45884199457214e-07</v>
+        <v>0.000419328804127872</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.827137551430496e-07</v>
+        <v>0.0004317776765674353</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.597933416836895e-06</v>
+        <v>0.002141915960237384</v>
       </c>
       <c r="AD10" t="n">
-        <v>8.027694775591954e-07</v>
+        <v>0.002944940235465765</v>
       </c>
       <c r="AE10" t="n">
-        <v>6.781635875086067e-07</v>
+        <v>0.002809980884194374</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.692537011876993e-06</v>
+        <v>0.00138485583011061</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.112042807311809e-08</v>
+        <v>0.003151276148855686</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.608650563866831e-07</v>
+        <v>0.001049987855367362</v>
       </c>
       <c r="AI10" t="n">
-        <v>1.221010847984871e-06</v>
+        <v>0.002274862956255674</v>
       </c>
       <c r="AJ10" t="n">
-        <v>4.453715973795624e-08</v>
+        <v>0.0009905549231916666</v>
       </c>
       <c r="AK10" t="n">
-        <v>6.653017408098094e-07</v>
+        <v>0.001075311098247766</v>
       </c>
       <c r="AL10" t="n">
-        <v>4.534962499747053e-06</v>
+        <v>0.006555069703608751</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.225428718498733e-06</v>
+        <v>0.0009824428707361221</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.678682661411585e-09</v>
+        <v>0.00179289816878736</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.334791002402199e-07</v>
+        <v>0.003497551195323467</v>
       </c>
       <c r="AP10" t="n">
-        <v>9.249944810107991e-07</v>
+        <v>0.004408515524119139</v>
       </c>
       <c r="AQ10" t="n">
-        <v>8.955772727858857e-07</v>
+        <v>0.0009750779718160629</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.028091674015741e-06</v>
+        <v>0.001137201790697873</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.318180065685738e-07</v>
+        <v>0.001175852259621024</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.305478917856817e-06</v>
+        <v>0.006773593369871378</v>
       </c>
       <c r="AU10" t="n">
-        <v>5.916321242693812e-06</v>
+        <v>0.0002230517566204071</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.096981122827856e-06</v>
+        <v>0.009786743670701981</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.383243551979831e-07</v>
+        <v>0.0008534894441254437</v>
       </c>
       <c r="AX10" t="n">
-        <v>2.715281652854173e-06</v>
+        <v>0.006826454307883978</v>
       </c>
       <c r="AY10" t="n">
-        <v>9.258542377210688e-07</v>
+        <v>6.753836350981146e-05</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1.852686182246543e-06</v>
+        <v>0.004121274221688509</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.77853291916108e-06</v>
+        <v>7.454364094883204e-06</v>
       </c>
       <c r="BB10" t="n">
-        <v>2.567988531154697e-06</v>
+        <v>0.006061933934688568</v>
       </c>
       <c r="BC10" t="n">
-        <v>1.831486088121892e-06</v>
+        <v>0.002516793319955468</v>
       </c>
       <c r="BD10" t="n">
-        <v>1.687235226199846e-06</v>
+        <v>0.01246840693056583</v>
       </c>
       <c r="BE10" t="n">
-        <v>1.453126856176823e-06</v>
+        <v>0.001105081522837281</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.067885705197114e-06</v>
+        <v>0.005414539948105812</v>
       </c>
       <c r="BG10" t="n">
-        <v>7.952394298627041e-10</v>
+        <v>0.005103392526507378</v>
       </c>
       <c r="BH10" t="n">
-        <v>2.014579649767256e-06</v>
+        <v>0.01221183314919472</v>
       </c>
       <c r="BI10" t="n">
-        <v>1.70042358149658e-06</v>
+        <v>0.002300280844792724</v>
       </c>
       <c r="BJ10" t="n">
-        <v>3.052305146411527e-06</v>
+        <v>0.006943571846932173</v>
       </c>
       <c r="BK10" t="n">
-        <v>1.298694542128942e-06</v>
+        <v>0.00671191094443202</v>
       </c>
       <c r="BL10" t="n">
-        <v>1.246360852746875e-06</v>
+        <v>0.0001267269253730774</v>
       </c>
       <c r="BM10" t="n">
-        <v>3.029909407814557e-07</v>
+        <v>0.001612434629350901</v>
       </c>
       <c r="BN10" t="n">
-        <v>2.427969775453676e-06</v>
+        <v>0.00473300414159894</v>
       </c>
       <c r="BO10" t="n">
-        <v>1.35046832383523e-07</v>
+        <v>0.005614698864519596</v>
       </c>
       <c r="BP10" t="n">
-        <v>2.680052148207324e-06</v>
+        <v>0.0008726034429855645</v>
       </c>
       <c r="BQ10" t="n">
-        <v>3.780668066610815e-06</v>
+        <v>0.003802666440606117</v>
       </c>
       <c r="BR10" t="n">
-        <v>2.282536570419325e-06</v>
+        <v>0.001767846173606813</v>
       </c>
       <c r="BS10" t="n">
-        <v>2.965367116303241e-07</v>
+        <v>0.002319548511877656</v>
       </c>
       <c r="BT10" t="n">
-        <v>5.606592026197177e-07</v>
+        <v>0.002003093017265201</v>
       </c>
       <c r="BU10" t="n">
-        <v>9.271471981264767e-07</v>
+        <v>0.002298418432474136</v>
       </c>
       <c r="BV10" t="n">
-        <v>3.352315161464503e-06</v>
+        <v>0.002385822357609868</v>
       </c>
       <c r="BW10" t="n">
-        <v>1.275089516639127e-06</v>
+        <v>0.003721290966495872</v>
       </c>
       <c r="BX10" t="n">
-        <v>1.63550623710762e-07</v>
+        <v>0.0008838206995278597</v>
       </c>
       <c r="BY10" t="n">
-        <v>2.173574785047094e-06</v>
+        <v>0.004782663192600012</v>
       </c>
       <c r="BZ10" t="n">
-        <v>1.247505906576407e-06</v>
+        <v>0.002574382349848747</v>
       </c>
       <c r="CA10" t="n">
-        <v>2.28141061597853e-06</v>
+        <v>7.457990432158113e-05</v>
       </c>
       <c r="CB10" t="n">
-        <v>1.026824065775145e-06</v>
+        <v>0.003910247702151537</v>
       </c>
       <c r="CC10" t="n">
-        <v>4.526734187493275e-08</v>
+        <v>0.006735891569405794</v>
       </c>
       <c r="CD10" t="n">
-        <v>7.947489280013542e-07</v>
+        <v>0.0008892323239706457</v>
       </c>
       <c r="CE10" t="n">
-        <v>2.705202177821775e-06</v>
+        <v>0.000215260311961174</v>
       </c>
       <c r="CF10" t="n">
-        <v>1.919353962875903e-06</v>
+        <v>0.002146045211702585</v>
       </c>
       <c r="CG10" t="n">
-        <v>1.032248064802843e-07</v>
+        <v>0.001860194839537144</v>
       </c>
       <c r="CH10" t="n">
-        <v>1.897276092677203e-06</v>
+        <v>0.0003191833384335041</v>
       </c>
       <c r="CI10" t="n">
-        <v>1.305532123296871e-06</v>
+        <v>0.0002035727229667827</v>
       </c>
       <c r="CJ10" t="n">
-        <v>1.156220719167322e-06</v>
+        <v>0.001222747494466603</v>
       </c>
       <c r="CK10" t="n">
-        <v>3.630786409303255e-07</v>
+        <v>0.001505570020526648</v>
       </c>
       <c r="CL10" t="n">
-        <v>3.592509401073585e-08</v>
+        <v>0.000952015514485538</v>
       </c>
       <c r="CM10" t="n">
-        <v>8.841001886139566e-08</v>
+        <v>0.001231289003044367</v>
       </c>
       <c r="CN10" t="n">
-        <v>2.295359536219621e-06</v>
+        <v>0.0004069495480507612</v>
       </c>
       <c r="CO10" t="n">
-        <v>1.165672188108147e-06</v>
+        <v>0.0001641842536628246</v>
       </c>
       <c r="CP10" t="n">
-        <v>9.155829161500151e-07</v>
+        <v>0.002374843927100301</v>
       </c>
       <c r="CQ10" t="n">
-        <v>1.307859065491357e-06</v>
+        <v>0.004363813903182745</v>
       </c>
       <c r="CR10" t="n">
-        <v>2.854868057511339e-07</v>
+        <v>0.0008566057658754289</v>
       </c>
       <c r="CS10" t="n">
-        <v>1.818882083171047e-06</v>
+        <v>0.003985555376857519</v>
       </c>
       <c r="CT10" t="n">
-        <v>1.591507384546276e-06</v>
+        <v>0.001336756977252662</v>
       </c>
       <c r="CU10" t="n">
-        <v>7.546577194261772e-07</v>
+        <v>0.002865440445020795</v>
       </c>
       <c r="CV10" t="n">
-        <v>4.968909479430295e-07</v>
+        <v>7.128872675821185e-05</v>
       </c>
       <c r="CW10" t="n">
-        <v>2.594417310319841e-06</v>
+        <v>0.001359528279863298</v>
       </c>
       <c r="CX10" t="n">
-        <v>2.274801317980746e-06</v>
+        <v>0.00207601860165596</v>
       </c>
       <c r="CY10" t="n">
-        <v>3.906344545612228e-07</v>
+        <v>0.001631237799301744</v>
       </c>
       <c r="CZ10" t="n">
-        <v>1.883834329419187e-06</v>
+        <v>5.727639654651284e-05</v>
       </c>
       <c r="DA10" t="n">
-        <v>6.972210826461378e-07</v>
+        <v>0.0004031641292385757</v>
       </c>
       <c r="DB10" t="n">
-        <v>1.052497282216791e-06</v>
+        <v>0.001003380515612662</v>
       </c>
       <c r="DC10" t="n">
-        <v>4.468766405807401e-07</v>
+        <v>0.0001554253394715488</v>
       </c>
       <c r="DD10" t="n">
-        <v>1.579488717595723e-08</v>
+        <v>0.0009123620111495256</v>
       </c>
       <c r="DE10" t="n">
-        <v>3.350345650687814e-06</v>
+        <v>0.00154461560305208</v>
       </c>
       <c r="DF10" t="n">
-        <v>8.725529028197343e-07</v>
+        <v>0.000706113176420331</v>
       </c>
       <c r="DG10" t="n">
-        <v>2.586399887150037e-06</v>
+        <v>0.01366825960576534</v>
       </c>
       <c r="DH10" t="n">
-        <v>1.405158400302753e-06</v>
+        <v>0.004965432919561863</v>
       </c>
       <c r="DI10" t="n">
-        <v>3.636472683865577e-06</v>
+        <v>0.0007145840208977461</v>
       </c>
       <c r="DJ10" t="n">
-        <v>1.709556045170757e-06</v>
+        <v>0.000112177076516673</v>
       </c>
       <c r="DK10" t="n">
-        <v>5.134041884957696e-07</v>
+        <v>0.00101995887234807</v>
       </c>
       <c r="DL10" t="n">
-        <v>2.00809523676071e-07</v>
+        <v>0.004983341787010431</v>
       </c>
       <c r="DM10" t="n">
-        <v>1.417213525201078e-06</v>
+        <v>0.003654823172837496</v>
       </c>
       <c r="DN10" t="n">
-        <v>4.00783726206555e-08</v>
+        <v>0.0007050432031974196</v>
       </c>
       <c r="DO10" t="n">
-        <v>9.641830729378853e-07</v>
+        <v>0.00579542201012373</v>
       </c>
       <c r="DP10" t="n">
-        <v>2.783874833767186e-06</v>
+        <v>0.0008740301709622145</v>
       </c>
       <c r="DQ10" t="n">
-        <v>3.015338734257966e-08</v>
+        <v>0.001527603017166257</v>
       </c>
       <c r="DR10" t="n">
-        <v>1.916861492645694e-06</v>
+        <v>0.002251382917165756</v>
       </c>
       <c r="DS10" t="n">
-        <v>5.183101734473894e-07</v>
+        <v>0.003318077186122537</v>
       </c>
       <c r="DT10" t="n">
-        <v>2.547241706452041e-07</v>
+        <v>0.001001129159703851</v>
       </c>
       <c r="DU10" t="n">
-        <v>1.529781684439513e-06</v>
+        <v>0.003952507860958576</v>
       </c>
       <c r="DV10" t="n">
-        <v>6.970148547225108e-07</v>
+        <v>0.006542331073433161</v>
       </c>
       <c r="DW10" t="n">
-        <v>1.186431745736627e-06</v>
+        <v>0.0006217823829501867</v>
       </c>
       <c r="DX10" t="n">
-        <v>8.089914445008617e-07</v>
+        <v>9.174106526188552e-05</v>
       </c>
       <c r="DY10" t="n">
-        <v>6.325569756882032e-08</v>
+        <v>0.0005937861278653145</v>
       </c>
       <c r="DZ10" t="n">
-        <v>4.7806639713599e-07</v>
+        <v>0.0005822773673571646</v>
       </c>
       <c r="EA10" t="n">
-        <v>1.157953533947875e-06</v>
+        <v>0.004393282812088728</v>
       </c>
       <c r="EB10" t="n">
-        <v>6.648535872955108e-07</v>
+        <v>0.001409407122991979</v>
       </c>
       <c r="EC10" t="n">
-        <v>7.520126246163272e-07</v>
+        <v>0.0002748364058788866</v>
       </c>
       <c r="ED10" t="n">
-        <v>2.585898528195685e-06</v>
+        <v>0.003735971869900823</v>
       </c>
       <c r="EE10" t="n">
-        <v>7.761508413750562e-07</v>
+        <v>0.003527302760630846</v>
       </c>
       <c r="EF10" t="n">
-        <v>7.366082854787237e-07</v>
+        <v>0.0008613160462118685</v>
       </c>
       <c r="EG10" t="n">
-        <v>3.056823516089935e-06</v>
+        <v>0.007610919885337353</v>
       </c>
       <c r="EH10" t="n">
-        <v>2.714868742259569e-06</v>
+        <v>0.006063283421099186</v>
       </c>
       <c r="EI10" t="n">
-        <v>1.684016297076596e-06</v>
+        <v>0.001743263565003872</v>
       </c>
       <c r="EJ10" t="n">
-        <v>1.767924459272763e-06</v>
+        <v>0.002102693542838097</v>
       </c>
       <c r="EK10" t="n">
-        <v>1.663534817453183e-06</v>
+        <v>0.002261952264234424</v>
       </c>
       <c r="EL10" t="n">
-        <v>8.580813073422178e-07</v>
+        <v>0.002284405985847116</v>
       </c>
       <c r="EM10" t="n">
-        <v>6.888211601108196e-07</v>
+        <v>0.0001429099938832223</v>
       </c>
       <c r="EN10" t="n">
-        <v>1.550218598822539e-06</v>
+        <v>0.003343382850289345</v>
       </c>
       <c r="EO10" t="n">
-        <v>1.358253825856082e-06</v>
+        <v>0.002052535535767674</v>
       </c>
       <c r="EP10" t="n">
-        <v>1.323560582022765e-06</v>
+        <v>0.002923015970736742</v>
       </c>
       <c r="EQ10" t="n">
-        <v>2.163462937687655e-07</v>
+        <v>0.001804685569368303</v>
       </c>
       <c r="ER10" t="n">
-        <v>7.346795882767765e-07</v>
+        <v>0.0003124686772935092</v>
       </c>
       <c r="ES10" t="n">
-        <v>8.505043069817475e-08</v>
+        <v>0.00637749582529068</v>
       </c>
       <c r="ET10" t="n">
-        <v>2.297439465337447e-07</v>
+        <v>0.001018129289150238</v>
       </c>
       <c r="EU10" t="n">
-        <v>1.034401407196128e-06</v>
+        <v>0.0005709343822672963</v>
       </c>
       <c r="EV10" t="n">
-        <v>5.080687515146565e-07</v>
+        <v>0.002177352551370859</v>
       </c>
       <c r="EW10" t="n">
-        <v>1.856722349202755e-07</v>
+        <v>0.005990616045892239</v>
       </c>
       <c r="EX10" t="n">
-        <v>9.116066621572827e-07</v>
+        <v>0.0005559457931667566</v>
       </c>
       <c r="EY10" t="n">
-        <v>2.299071866218583e-06</v>
+        <v>2.585415495559573e-05</v>
       </c>
       <c r="EZ10" t="n">
-        <v>2.007936473091831e-06</v>
+        <v>0.001822466496378183</v>
       </c>
       <c r="FA10" t="n">
-        <v>3.032745610198617e-07</v>
+        <v>0.001537043950520456</v>
       </c>
       <c r="FB10" t="n">
-        <v>1.889240479613363e-06</v>
+        <v>0.001002574455924332</v>
       </c>
       <c r="FC10" t="n">
-        <v>7.226900038403983e-07</v>
+        <v>0.001731146941892803</v>
       </c>
       <c r="FD10" t="n">
-        <v>1.057626377587439e-06</v>
+        <v>0.0008095414377748966</v>
       </c>
       <c r="FE10" t="n">
-        <v>5.4596611676061e-08</v>
+        <v>0.0009828918846324086</v>
       </c>
       <c r="FF10" t="n">
-        <v>1.892191079377881e-07</v>
+        <v>0.0002785743854474276</v>
       </c>
       <c r="FG10" t="n">
-        <v>4.436857352629886e-07</v>
+        <v>0.002720116171985865</v>
       </c>
       <c r="FH10" t="n">
-        <v>1.493923946327413e-06</v>
+        <v>0.003995231818407774</v>
       </c>
       <c r="FI10" t="n">
-        <v>1.399024540660321e-06</v>
+        <v>0.0002514836378395557</v>
       </c>
       <c r="FJ10" t="n">
-        <v>1.699029468227309e-07</v>
+        <v>0.0009851726936176419</v>
       </c>
       <c r="FK10" t="n">
-        <v>1.350674949662789e-07</v>
+        <v>0.002016727114096284</v>
       </c>
       <c r="FL10" t="n">
-        <v>8.06908587946964e-07</v>
+        <v>0.002992782508954406</v>
       </c>
       <c r="FM10" t="n">
-        <v>8.255627790276776e-07</v>
+        <v>0.0005680026370100677</v>
       </c>
       <c r="FN10" t="n">
-        <v>3.768487033539714e-08</v>
+        <v>0.00410342775285244</v>
       </c>
       <c r="FO10" t="n">
-        <v>2.26630595534516e-06</v>
+        <v>0.0007055505411699414</v>
       </c>
       <c r="FP10" t="n">
-        <v>2.04698523020852e-07</v>
+        <v>0.006702053360641003</v>
       </c>
       <c r="FQ10" t="n">
-        <v>5.526528639165917e-07</v>
+        <v>0.00145976385101676</v>
       </c>
       <c r="FR10" t="n">
-        <v>1.843821223701525e-06</v>
+        <v>0.00296325096860528</v>
       </c>
       <c r="FS10" t="n">
-        <v>5.52584538127121e-07</v>
+        <v>0.005689747165888548</v>
       </c>
       <c r="FT10" t="n">
-        <v>6.598012873837433e-07</v>
+        <v>0.005208142101764679</v>
       </c>
       <c r="FU10" t="n">
-        <v>3.453377985351835e-06</v>
+        <v>0.002333753276616335</v>
       </c>
       <c r="FV10" t="n">
-        <v>2.786899813145283e-07</v>
+        <v>0.000848819559905678</v>
       </c>
       <c r="FW10" t="n">
-        <v>1.38132577376382e-07</v>
+        <v>0.00992355402559042</v>
       </c>
       <c r="FX10" t="n">
-        <v>1.012031361824484e-06</v>
+        <v>0.0001647444441914558</v>
       </c>
       <c r="FY10" t="n">
-        <v>2.637280886119697e-06</v>
+        <v>0.001094034407287836</v>
       </c>
       <c r="FZ10" t="n">
-        <v>1.484726794842572e-07</v>
+        <v>0.004508636426180601</v>
       </c>
       <c r="GA10" t="n">
-        <v>2.076139935525134e-06</v>
+        <v>0.003622629679739475</v>
       </c>
       <c r="GB10" t="n">
-        <v>1.634179852771922e-06</v>
+        <v>0.002437945455312729</v>
       </c>
       <c r="GC10" t="n">
-        <v>1.327283825958148e-06</v>
+        <v>0.0004611957992892712</v>
       </c>
       <c r="GD10" t="n">
-        <v>2.780474005703581e-06</v>
+        <v>0.0007034558220766485</v>
       </c>
       <c r="GE10" t="n">
-        <v>1.614899474589038e-06</v>
+        <v>0.001265434897504747</v>
       </c>
       <c r="GF10" t="n">
-        <v>2.767789908375562e-07</v>
+        <v>0.002784025622531772</v>
       </c>
       <c r="GG10" t="n">
-        <v>1.173719113012339e-07</v>
+        <v>0.001997957238927484</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01303969696164131</v>
+        <v>0.0003114817372988909</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07631535828113556</v>
+        <v>0.006658436264842749</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01100313663482666</v>
+        <v>0.0004535325570032001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0146883437409997</v>
+        <v>0.003507358022034168</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02227417379617691</v>
+        <v>0.001076516346074641</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04106447845697403</v>
+        <v>0.006619609892368317</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02206683158874512</v>
+        <v>8.526994497515261e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005521828774362803</v>
+        <v>0.002861337503418326</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00684574106708169</v>
+        <v>0.0005798629717901349</v>
       </c>
       <c r="J11" t="n">
-        <v>0.005114549770951271</v>
+        <v>0.00141509051900357</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07277511060237885</v>
+        <v>0.006056691519916058</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003094826824963093</v>
+        <v>7.259455742314458e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00794525258243084</v>
+        <v>0.002760220551863313</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01150114554911852</v>
+        <v>0.0006021721055731177</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04787373542785645</v>
+        <v>0.006740001030266285</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01507067400962114</v>
+        <v>4.201679257676005e-05</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01016410160809755</v>
+        <v>0.001062426483258605</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01221118681132793</v>
+        <v>0.0004449023981578648</v>
       </c>
       <c r="S11" t="n">
-        <v>0.004750438034534454</v>
+        <v>0.0004191080224700272</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0009450289071537554</v>
+        <v>0.0008661516476422548</v>
       </c>
       <c r="U11" t="n">
-        <v>0.001501691178418696</v>
+        <v>0.0001888469705590978</v>
       </c>
       <c r="V11" t="n">
-        <v>0.005550007335841656</v>
+        <v>0.0004566608986351639</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01644563488662243</v>
+        <v>7.08007428329438e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>0.008950799703598022</v>
+        <v>0.0003191145369783044</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.001329288701526821</v>
+        <v>0.0006099293241277337</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01220323611050844</v>
+        <v>0.0005630491650663316</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.006466733757406473</v>
+        <v>0.0003948401426896453</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01425667479634285</v>
+        <v>0.0002053638454526663</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.00962933711707592</v>
+        <v>0.0008283147471956909</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.001075011678040028</v>
+        <v>0.0001397977612214163</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.004416249692440033</v>
+        <v>0.0002768428530544043</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.001824050094000995</v>
+        <v>0.0001181986881420016</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.004612384364008904</v>
+        <v>0.0004223895957693458</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.006470453925430775</v>
+        <v>0.0003723030677065253</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.008612762205302715</v>
+        <v>0.0008996143005788326</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.01582006365060806</v>
+        <v>2.182889147661626e-06</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.003171145683154464</v>
+        <v>0.0006738491356372833</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.01139715127646923</v>
+        <v>0.0009499705047346652</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.0006374566582962871</v>
+        <v>0.0001024808443617076</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.009246255271136761</v>
+        <v>0.0004034066223539412</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.005186084657907486</v>
+        <v>0.0005641539464704692</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.009312940761446953</v>
+        <v>0.001277035917155445</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.004406184889376163</v>
+        <v>0.0004387305816635489</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.003964738920331001</v>
+        <v>0.0004087536653969437</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.002628645161166787</v>
+        <v>0.0008141805883497</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.007733224891126156</v>
+        <v>0.0004910407587885857</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.0384003110229969</v>
+        <v>0.004209703765809536</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.003451253985986114</v>
+        <v>0.000315585290081799</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.008505988866090775</v>
+        <v>0.0004324584151618183</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.01215515285730362</v>
+        <v>0.0006008787313476205</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.01986611261963844</v>
+        <v>0.003374591236934066</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.002635408192873001</v>
+        <v>2.533868246246129e-05</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.01117869187146425</v>
+        <v>0.001544948434457183</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.003619466908276081</v>
+        <v>0.0005309036932885647</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.003417077008634806</v>
+        <v>0.0005022604018449783</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.01183607243001461</v>
+        <v>0.001615376677364111</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.002137999050319195</v>
+        <v>0.002114982577040792</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.01154123246669769</v>
+        <v>0.001117482781410217</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.002332468051463366</v>
+        <v>0.002193171065300703</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.002161397831514478</v>
+        <v>0.002600164618343115</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.01663952134549618</v>
+        <v>6.820025737397373e-05</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.004623059649020433</v>
+        <v>0.0008321141940541565</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.01784178055822849</v>
+        <v>0.0002587902708910406</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.003350717946887016</v>
+        <v>6.603637302760035e-05</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.005919850431382656</v>
+        <v>0.00134776090271771</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.002630253322422504</v>
+        <v>0.0007208878523670137</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.002280585002154112</v>
+        <v>0.000948445638641715</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.008548909798264503</v>
+        <v>5.813007010146976e-05</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.01634686812758446</v>
+        <v>0.0002316391473868862</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.004492335952818394</v>
+        <v>0.0005451000761240721</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.006496462970972061</v>
+        <v>0.0005911311600357294</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.0001244773156940937</v>
+        <v>0.0003886200720444322</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.006252261344343424</v>
+        <v>0.0002750351559370756</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.02156652882695198</v>
+        <v>0.002202808856964111</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.0009566070511937141</v>
+        <v>0.0006939124432392418</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.001875037327408791</v>
+        <v>0.0003583972866181284</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.007763610687106848</v>
+        <v>1.466281537432224e-05</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.02162964269518852</v>
+        <v>0.001566570019349456</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.001077305874787271</v>
+        <v>0.0004448893014341593</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.002129982691258192</v>
+        <v>0.0009225280955433846</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.004188055172562599</v>
+        <v>0.0005252250703051686</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.003698296379297972</v>
+        <v>5.078873800812289e-05</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.01744693890213966</v>
+        <v>0.001170326373539865</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.003922861535102129</v>
+        <v>0.0007144972332753241</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.005355468951165676</v>
+        <v>0.0006167270475998521</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.002481210744008422</v>
+        <v>0.0002028847520705312</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.007402922958135605</v>
+        <v>0.0009982238989323378</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.003320170566439629</v>
+        <v>0.0004684135201387107</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.0007840559119358659</v>
+        <v>0.0003258638316765428</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.001348973484709859</v>
+        <v>0.0003739614621736109</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.003226329339668155</v>
+        <v>0.0008092976058833301</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.003456630278378725</v>
+        <v>0.0005319399642758071</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.007743208203464746</v>
+        <v>0.0002858251100406051</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.005344878882169724</v>
+        <v>0.0009994995780289173</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.008664771914482117</v>
+        <v>9.879248682409525e-05</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.008580493740737438</v>
+        <v>1.180582330562174e-05</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.006066498812288046</v>
+        <v>0.001239823643118143</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.0182816106826067</v>
+        <v>0.001117619452998042</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.02577575296163559</v>
+        <v>0.0001461011124774814</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.003713315818458796</v>
+        <v>0.0001165786161436699</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.01622981019318104</v>
+        <v>0.0009324921411462128</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.002229654928669333</v>
+        <v>0.0006842068978585303</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.006768064107745886</v>
+        <v>0.000918727891985327</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.001513907918706536</v>
+        <v>0.0002414498158032075</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.00587890762835741</v>
+        <v>0.001093625323846936</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.003349879290908575</v>
+        <v>0.0003816436510533094</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.001296833390370011</v>
+        <v>0.0006415589014068246</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.001799142570234835</v>
+        <v>0.0002043932327069342</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.01522880140691996</v>
+        <v>0.0007982738898135722</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.00464801536872983</v>
+        <v>0.001009013969451189</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.02120810002088547</v>
+        <v>8.009128214325756e-05</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.005948147736489773</v>
+        <v>0.001819947501644492</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.01674526929855347</v>
+        <v>0.0004008375108242035</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.008400723338127136</v>
+        <v>2.783065428957343e-05</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.0101793622598052</v>
+        <v>0.0006984989158809185</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.003456343431025743</v>
+        <v>0.00171434972435236</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.008239064365625381</v>
+        <v>0.0007744120666757226</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.003589467145502567</v>
+        <v>0.0003431295626796782</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.0007468252442777157</v>
+        <v>1.061853254213929e-07</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.004712906200438738</v>
+        <v>0.0006233913591131568</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.004087379667907953</v>
+        <v>0.0005477418890222907</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.001480366918258369</v>
+        <v>0.0005535581149160862</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.002723289886489511</v>
+        <v>0.0005328348488546908</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.002437244169414043</v>
+        <v>0.0002935680968221277</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.005649259779602289</v>
+        <v>0.0001187552115879953</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.0001052031293511391</v>
+        <v>0.0007311482913792133</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.008433880284428596</v>
+        <v>0.0002807182027027011</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.007062961347401142</v>
+        <v>0.000728256709408015</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.0009085284546017647</v>
+        <v>0.0007582674734294415</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.001387620577588677</v>
+        <v>0.0007969049620442092</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.006849784404039383</v>
+        <v>2.615680568851531e-05</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.004325000569224358</v>
+        <v>0.0003153067955281585</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.00753381522372365</v>
+        <v>5.583516758633777e-05</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.007336540147662163</v>
+        <v>0.0002193223190261051</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.009735453873872757</v>
+        <v>0.0003579104377422482</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.001648035366088152</v>
+        <v>0.0004843944334425032</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.02265867032110691</v>
+        <v>0.0009681166848167777</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.008681117556989193</v>
+        <v>0.0005144341266714036</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.005567403044551611</v>
+        <v>0.000232725142268464</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.01006860565394163</v>
+        <v>0.0001414053404005244</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.009658674709498882</v>
+        <v>0.0008725596708245575</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.00552042294293642</v>
+        <v>0.0007476137834601104</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.0007291763322427869</v>
+        <v>9.064193000085652e-05</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.008092648349702358</v>
+        <v>2.396612399024889e-05</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.0006769951432943344</v>
+        <v>0.0001002049684757367</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.007699636276811361</v>
+        <v>0.0006054200930520892</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.0008587522897869349</v>
+        <v>0.0007978705689311028</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.0007659206166863441</v>
+        <v>0.0009137779707089067</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.0005559098208323121</v>
+        <v>1.296787377214059e-05</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.00484358100220561</v>
+        <v>0.0001145209098467603</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.004528295248746872</v>
+        <v>0.0002713224675972015</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.005293634254485369</v>
+        <v>0.001188090071082115</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.003581086872145534</v>
+        <v>0.0001572722540004179</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.004700514022260904</v>
+        <v>0.0001966955605894327</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.01518775895237923</v>
+        <v>0.0009602885111235082</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.002034243661910295</v>
+        <v>0.0004872015269938856</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.006623166147619486</v>
+        <v>0.0006036548875272274</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.002476441441103816</v>
+        <v>0.0001901990326587111</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.007249470800161362</v>
+        <v>0.001023171003907919</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.003452671691775322</v>
+        <v>0.0006125814979895949</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.003571093780919909</v>
+        <v>0.0003582475474104285</v>
       </c>
       <c r="FF11" t="n">
-        <v>6.919948646100238e-06</v>
+        <v>0.0005003382684662938</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.003839092561975121</v>
+        <v>0.0001921674993354827</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.0116893881931901</v>
+        <v>5.843374310643412e-05</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.009609525091946125</v>
+        <v>0.0007140941452234983</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.0112513042986393</v>
+        <v>0.001517805736511946</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.008516795933246613</v>
+        <v>1.092387537937611e-05</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.001445007510483265</v>
+        <v>0.001044298987835646</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.0009840365964919329</v>
+        <v>7.795785495545715e-05</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.007701973896473646</v>
+        <v>0.0002355283359065652</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.002972118556499481</v>
+        <v>0.0003357436507940292</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.00114364898763597</v>
+        <v>0.0002953223302029073</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.01027302350848913</v>
+        <v>0.001011263928376138</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.007048599421977997</v>
+        <v>0.0003387775795999914</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.01613418944180012</v>
+        <v>0.0006724866107106209</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.003586982376873493</v>
+        <v>0.001354722306132317</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.02078407071530819</v>
+        <v>0.0009234948083758354</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.003077188041061163</v>
+        <v>0.0002064991858787835</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.003591120010241866</v>
+        <v>0.0001268176129087806</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.01298339292407036</v>
+        <v>0.0003058339934796095</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.005134503822773695</v>
+        <v>0.001293698791414499</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.002264548558741808</v>
+        <v>0.0003554490976966918</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.0009411633363924921</v>
+        <v>0.0002392134047113359</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.0001524702529422939</v>
+        <v>4.115397314308211e-05</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.002017711289227009</v>
+        <v>0.0005332290893420577</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.007750582881271839</v>
+        <v>0.001300150179304183</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.004504918120801449</v>
+        <v>0.00242910860106349</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.01241942495107651</v>
+        <v>0.0005419501103460789</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.002401287900283933</v>
+        <v>0.0006779886316508055</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.01316240523010492</v>
+        <v>0.01144947670400143</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03096159175038338</v>
+        <v>0.1504969447851181</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001279235119000077</v>
+        <v>0.01532062515616417</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01871361769735813</v>
+        <v>0.08022808283567429</v>
       </c>
       <c r="E12" t="n">
-        <v>0.009673031978309155</v>
+        <v>0.009256216697394848</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004429145716130733</v>
+        <v>0.002556848805397749</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002816043794155121</v>
+        <v>0.004522554576396942</v>
       </c>
       <c r="H12" t="n">
-        <v>0.004142699763178825</v>
+        <v>0.006742778234183788</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0006436657859012485</v>
+        <v>0.0151921147480607</v>
       </c>
       <c r="J12" t="n">
-        <v>0.009314002469182014</v>
+        <v>0.003764954395592213</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02594798430800438</v>
+        <v>0.1245111748576164</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001194181386381388</v>
+        <v>0.002913932781666517</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01997271738946438</v>
+        <v>0.08188043534755707</v>
       </c>
       <c r="N12" t="n">
-        <v>0.006152242422103882</v>
+        <v>0.03398919850587845</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002874747850000858</v>
+        <v>0.002478230511769652</v>
       </c>
       <c r="P12" t="n">
-        <v>0.004309393465518951</v>
+        <v>0.006012355908751488</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.004535015672445297</v>
+        <v>0.01468757819384336</v>
       </c>
       <c r="R12" t="n">
-        <v>0.001457098871469498</v>
+        <v>0.002638009609654546</v>
       </c>
       <c r="S12" t="n">
-        <v>0.006593708880245686</v>
+        <v>0.01014641020447016</v>
       </c>
       <c r="T12" t="n">
-        <v>0.001428481424227357</v>
+        <v>0.02531856298446655</v>
       </c>
       <c r="U12" t="n">
-        <v>0.002147392136976123</v>
+        <v>0.01642926409840584</v>
       </c>
       <c r="V12" t="n">
-        <v>0.004671204835176468</v>
+        <v>0.002674577059224248</v>
       </c>
       <c r="W12" t="n">
-        <v>0.01702642813324928</v>
+        <v>0.01990109123289585</v>
       </c>
       <c r="X12" t="n">
-        <v>0.001814279472455382</v>
+        <v>0.01923577487468719</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.006082653999328613</v>
+        <v>0.01522575598210096</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.731870912015438e-05</v>
+        <v>0.005501623265445232</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.002072120551019907</v>
+        <v>0.003026867983862758</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.007471633143723011</v>
+        <v>0.02585436031222343</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.007729114033281803</v>
+        <v>0.03472211584448814</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.008054331876337528</v>
+        <v>0.005253628827631474</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.004469736944884062</v>
+        <v>0.007632804103195667</v>
       </c>
       <c r="AF12" t="n">
-        <v>7.905741222202778e-05</v>
+        <v>0.0008505875011906028</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.001595239620655775</v>
+        <v>0.001763288863003254</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.004200092051178217</v>
+        <v>0.001969275996088982</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.002205677796155214</v>
+        <v>0.0022533203009516</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.0004313329700380564</v>
+        <v>0.002111888723447919</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.007892824709415436</v>
+        <v>0.006453018635511398</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.008296091109514236</v>
+        <v>0.007041017524898052</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.001140615087933838</v>
+        <v>0.005214375909417868</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.003493057563900948</v>
+        <v>0.006987066939473152</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.001833132235333323</v>
+        <v>0.0192532129585743</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.002718530828133225</v>
+        <v>0.01875159703195095</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.000522888673003763</v>
+        <v>0.01202760729938745</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.00300276605412364</v>
+        <v>0.009602842852473259</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.002443961333483458</v>
+        <v>0.00173129967879504</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.01634002663195133</v>
+        <v>0.01229660026729107</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.02698072977364063</v>
+        <v>0.1054676845669746</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.001488315872848034</v>
+        <v>0.007515748962759972</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.001535944058559835</v>
+        <v>0.02985446527600288</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.001299789175391197</v>
+        <v>0.001259103417396545</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.002306452021002769</v>
+        <v>0.009920964017510414</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.003702597226947546</v>
+        <v>0.01673180796205997</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.009189553558826447</v>
+        <v>0.005780902691185474</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.003488941118121147</v>
+        <v>0.01495716907083988</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.001366516342386603</v>
+        <v>0.02232211641967297</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.001476097851991653</v>
+        <v>0.03791588172316551</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.0006606978131458163</v>
+        <v>0.03203603997826576</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.006923205684870481</v>
+        <v>0.0121734831482172</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.0009385948069393635</v>
+        <v>0.01476960722357035</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.00119904160965234</v>
+        <v>0.02123440429568291</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.003562734927982092</v>
+        <v>0.0168388020247221</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.0005181546439416707</v>
+        <v>0.008081729523837566</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.007465644739568233</v>
+        <v>0.003714036662131548</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.003012269269675016</v>
+        <v>0.03049065545201302</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.002558706793934107</v>
+        <v>0.03865319117903709</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.001018430222757161</v>
+        <v>0.02377462387084961</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.004073590505868196</v>
+        <v>0.001405722228810191</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.0005460495594888926</v>
+        <v>0.03274954110383987</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.003512124996632338</v>
+        <v>0.01728870160877705</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.0006749752792529762</v>
+        <v>0.01727994903922081</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.004578142892569304</v>
+        <v>0.006805109791457653</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.0007925322279334068</v>
+        <v>0.005791764240711927</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.01259754225611687</v>
+        <v>0.01048655807971954</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.007816068828105927</v>
+        <v>0.05577325448393822</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.0002315105521120131</v>
+        <v>0.01880676113069057</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.006964745931327343</v>
+        <v>0.01106781233102083</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.007868697866797447</v>
+        <v>0.0251929797232151</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.0001063898962456733</v>
+        <v>0.02230413816869259</v>
       </c>
       <c r="CA12" t="n">
-        <v>3.885826663463376e-05</v>
+        <v>0.001822424936108291</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.0008494495414197445</v>
+        <v>0.008250247687101364</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.004326668567955494</v>
+        <v>0.0001540616503916681</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.0004375387507025152</v>
+        <v>0.0008689132519066334</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.006680121645331383</v>
+        <v>0.02381194196641445</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.0008240959723480046</v>
+        <v>0.003986414056271315</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.003600507276132703</v>
+        <v>0.006069791037589312</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.001515018637292087</v>
+        <v>0.006809944752603769</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.0008857828797772527</v>
+        <v>0.0009058307623490691</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.0005952472565695643</v>
+        <v>0.004922123625874519</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.002703244797885418</v>
+        <v>0.001895082998089492</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.0002868130395654589</v>
+        <v>0.001177533878944814</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.001645356649532914</v>
+        <v>0.03557520732283592</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.004240504000335932</v>
+        <v>0.03242071345448494</v>
       </c>
       <c r="CO12" t="n">
-        <v>9.468500502407551e-05</v>
+        <v>0.002466131467372179</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.00221347576007247</v>
+        <v>0.03231442347168922</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.02190239168703556</v>
+        <v>0.04504749923944473</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.001337776426225901</v>
+        <v>0.00781142245978117</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.00254856375977397</v>
+        <v>0.00105154444463551</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.00556282140314579</v>
+        <v>0.02949480153620243</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.0008965269662439823</v>
+        <v>0.003597133327275515</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.0002912949421443045</v>
+        <v>0.004369407426565886</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.007391149178147316</v>
+        <v>0.02263648249208927</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.0005302452482283115</v>
+        <v>0.009965988807380199</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.002768940757960081</v>
+        <v>0.01155843399465084</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.001736019039526582</v>
+        <v>0.01065077167004347</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.0009250536095350981</v>
+        <v>0.003059071255847812</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.0007364402408711612</v>
+        <v>0.001789073925465345</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.002394400304183364</v>
+        <v>0.0004577640793286264</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.001259318203665316</v>
+        <v>0.002185155171900988</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.004023872315883636</v>
+        <v>0.01891420409083366</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.01704922877252102</v>
+        <v>0.02196467109024525</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.0004045965615659952</v>
+        <v>0.01092184241861105</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.006427616346627474</v>
+        <v>0.04150235652923584</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.002042188541963696</v>
+        <v>0.00495636323466897</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.008798173628747463</v>
+        <v>0.007385888136923313</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.004261431749910116</v>
+        <v>0.001526889624074101</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.009601863101124763</v>
+        <v>0.01158357504755259</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.005229625850915909</v>
+        <v>0.009550459682941437</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.000737588619813323</v>
+        <v>0.009300252422690392</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.002122751204296947</v>
+        <v>0.01782942190766335</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.002359823556616902</v>
+        <v>0.01131340209394693</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.001740143285132945</v>
+        <v>0.01894110441207886</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.009157225489616394</v>
+        <v>0.02394521981477737</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.001465836772695184</v>
+        <v>0.0008676936849951744</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.002828471595421433</v>
+        <v>0.006735903210937977</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.005367820151150227</v>
+        <v>0.008271541446447372</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.004050567280501127</v>
+        <v>0.004292871337383986</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.0006112433038651943</v>
+        <v>0.007223584223538637</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.004724021069705486</v>
+        <v>0.03300395980477333</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.001954389736056328</v>
+        <v>0.007858187891542912</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.006646967027336359</v>
+        <v>0.009687222540378571</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.00665421923622489</v>
+        <v>0.03125056624412537</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.002834400627762079</v>
+        <v>0.01571883261203766</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.001753499847836792</v>
+        <v>0.009735610336065292</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.001170203322544694</v>
+        <v>0.004753687418997288</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.001073254272341728</v>
+        <v>0.003764999797567725</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.004423973616212606</v>
+        <v>0.009736058302223682</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.005147708114236593</v>
+        <v>0.01000753417611122</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.002818599808961153</v>
+        <v>0.005074639804661274</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.004517435096204281</v>
+        <v>0.01966767944395542</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.009329766035079956</v>
+        <v>0.01491064205765724</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.001066406723111868</v>
+        <v>0.004877352155745029</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.003585027996450663</v>
+        <v>0.001361922477371991</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.001059050438925624</v>
+        <v>0.0001467458787374198</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.0008045800495892763</v>
+        <v>0.0022678067907691</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.0015393445501104</v>
+        <v>0.007327340543270111</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.0032528608571738</v>
+        <v>0.02132338471710682</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.003317979862913489</v>
+        <v>0.01069468352943659</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.004683203529566526</v>
+        <v>0.00311377621255815</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.003380950540304184</v>
+        <v>0.008723657578229904</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.001160541316494346</v>
+        <v>0.004914251156151295</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.002330050570890307</v>
+        <v>0.0003933779080398381</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.002443945966660976</v>
+        <v>0.004381287842988968</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.0002953752409666777</v>
+        <v>0.003476555459201336</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.001379824010655284</v>
+        <v>0.003074720967561007</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.005828145425766706</v>
+        <v>0.02304818667471409</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.001067883335053921</v>
+        <v>0.003446137998253107</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.002425501821562648</v>
+        <v>0.007586832158267498</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.001665832125581801</v>
+        <v>0.003838331904262304</v>
       </c>
       <c r="FC12" t="n">
-        <v>6.251706508919597e-05</v>
+        <v>0.007521479856222868</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.001719241146929562</v>
+        <v>0.0009033542592078447</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.003160257590934634</v>
+        <v>0.0009504257468506694</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.0005486995214596391</v>
+        <v>0.001243531238287687</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.007409847341477871</v>
+        <v>0.005146809387952089</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.002765480894595385</v>
+        <v>0.02320501580834389</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.004768238868564367</v>
+        <v>0.004607267677783966</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.003272922011092305</v>
+        <v>0.009811265394091606</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.003799004713073373</v>
+        <v>0.02095891162753105</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.003313923720270395</v>
+        <v>0.01570451445877552</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.003748669987544417</v>
+        <v>0.02047693729400635</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.0004291126388125122</v>
+        <v>0.003660818794742227</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.006274972576647997</v>
+        <v>0.0008282696362584829</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.001152132637798786</v>
+        <v>0.004871371202170849</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.0003738440573215485</v>
+        <v>0.009876130148768425</v>
       </c>
       <c r="FR12" t="n">
-        <v>9.437813423573971e-05</v>
+        <v>0.001393770799040794</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.01794062182307243</v>
+        <v>0.0084037184715271</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.004684400744736195</v>
+        <v>0.02245535142719746</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.001953211380168796</v>
+        <v>0.01189312431961298</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.0007147893775254488</v>
+        <v>0.009118018671870232</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.002971247304230928</v>
+        <v>0.001686592469923198</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.0004489149141591042</v>
+        <v>0.004579117055982351</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.002844446338713169</v>
+        <v>0.01948091760277748</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.005964160896837711</v>
+        <v>0.01414039172232151</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.007077897898852825</v>
+        <v>0.005443787202239037</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.002101132180541754</v>
+        <v>0.009608067572116852</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.006664153654128313</v>
+        <v>0.007898533716797829</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.001641327864490449</v>
+        <v>0.02519179508090019</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.004703048150986433</v>
+        <v>0.005560021381825209</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.004833859391510487</v>
+        <v>0.004353761672973633</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.0004503950476646423</v>
+        <v>0.001065847114659846</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.447288990020752</v>
+        <v>0.01292691007256508</v>
       </c>
       <c r="B13" t="n">
-        <v>0.373981237411499</v>
+        <v>0.0004180208779871464</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3103105425834656</v>
+        <v>0.002862116787582636</v>
       </c>
       <c r="D13" t="n">
-        <v>2.663431167602539</v>
+        <v>0.007362076081335545</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4428716003894806</v>
+        <v>0.002399749821051955</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1477364301681519</v>
+        <v>0.002834990154951811</v>
       </c>
       <c r="G13" t="n">
-        <v>1.054662346839905</v>
+        <v>0.001827792031690478</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6185756921768188</v>
+        <v>0.001120012835599482</v>
       </c>
       <c r="I13" t="n">
-        <v>0.541151762008667</v>
+        <v>0.0003884859324898571</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8847005367279053</v>
+        <v>0.01130351237952709</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6147190928459167</v>
+        <v>0.001227352535352111</v>
       </c>
       <c r="L13" t="n">
-        <v>0.667751669883728</v>
+        <v>0.003550241002812982</v>
       </c>
       <c r="M13" t="n">
-        <v>2.444464921951294</v>
+        <v>0.002917520934715867</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6243396401405334</v>
+        <v>0.003241354133933783</v>
       </c>
       <c r="O13" t="n">
-        <v>1.05092179775238</v>
+        <v>0.0005691564292646945</v>
       </c>
       <c r="P13" t="n">
-        <v>0.7433784604072571</v>
+        <v>0.0003517331788316369</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.810511469841003</v>
+        <v>0.001591695356182754</v>
       </c>
       <c r="R13" t="n">
-        <v>0.5826383829116821</v>
+        <v>0.0008881108369678259</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0684487372636795</v>
+        <v>0.001816441072151065</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3065345883369446</v>
+        <v>0.002677228301763535</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1007292419672012</v>
+        <v>0.001218819990754128</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1637395322322845</v>
+        <v>0.0003081221657339483</v>
       </c>
       <c r="W13" t="n">
-        <v>0.5763899087905884</v>
+        <v>0.0007946976111270487</v>
       </c>
       <c r="X13" t="n">
-        <v>0.09848672151565552</v>
+        <v>0.0003769437316805124</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.3667759299278259</v>
+        <v>0.0003452260280027986</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.1544185727834702</v>
+        <v>0.002193327993154526</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.1285781562328339</v>
+        <v>0.0005050029722042382</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.2094806283712387</v>
+        <v>0.001406053081154823</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.4126436114311218</v>
+        <v>0.002732509979978204</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.3520681262016296</v>
+        <v>0.0005173551617190242</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.5372130274772644</v>
+        <v>0.0007182052358984947</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.007553126662969589</v>
+        <v>0.001094578532502055</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.4297260642051697</v>
+        <v>0.0008068624883890152</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.6387895941734314</v>
+        <v>0.0006220145151019096</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.4126353859901428</v>
+        <v>0.001130228396505117</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.3342239558696747</v>
+        <v>0.0007596216746605933</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.5234585404396057</v>
+        <v>0.001884884666651487</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.5692274570465088</v>
+        <v>4.978018114343286e-05</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.047532819211483</v>
+        <v>0.0005821776576340199</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.5624091029167175</v>
+        <v>0.001325310091488063</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.2728872299194336</v>
+        <v>0.001605858677066863</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.5995302200317383</v>
+        <v>0.0005991435027681291</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.08467980474233627</v>
+        <v>0.001474799122661352</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.7413107752799988</v>
+        <v>0.00156008277554065</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.01567886769771576</v>
+        <v>0.0006756687071174383</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.6236785054206848</v>
+        <v>0.008258676156401634</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.393950343132019</v>
+        <v>0.00248586037196219</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.1211809366941452</v>
+        <v>0.003129234304651618</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.222809314727783</v>
+        <v>0.00421185651794076</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.03838545083999634</v>
+        <v>0.003098843386396766</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.6845996379852295</v>
+        <v>0.0004474915331229568</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.6236327886581421</v>
+        <v>0.0007040596683509648</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.6448515057563782</v>
+        <v>0.002999742049723864</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.2510199248790741</v>
+        <v>0.0009903620230033994</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.6021629571914673</v>
+        <v>0.005068816710263491</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.1241577714681625</v>
+        <v>0.006305650807917118</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.3418028354644775</v>
+        <v>0.0006298352964222431</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.9001712799072266</v>
+        <v>0.0004053547454532236</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.1608048975467682</v>
+        <v>0.001810517045669258</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.529729425907135</v>
+        <v>0.0002857029321603477</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.9619117975234985</v>
+        <v>0.0007254082011058927</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.9137464761734009</v>
+        <v>0.002997897565364838</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.4861354827880859</v>
+        <v>0.001957024680450559</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.1123323068022728</v>
+        <v>0.0007021577330306172</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.07902989536523819</v>
+        <v>0.002961451187729836</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.02091722935438156</v>
+        <v>0.0006006755866110325</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.2875953018665314</v>
+        <v>0.0005914706271141768</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.06719056516885757</v>
+        <v>0.0006493596592918038</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.1220765709877014</v>
+        <v>0.001025033532641828</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.1197954416275024</v>
+        <v>0.001200031489133835</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.4150987267494202</v>
+        <v>0.000461847463157028</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.08546936511993408</v>
+        <v>0.000992167042568326</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.6371753215789795</v>
+        <v>0.003613394452258945</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.2223146706819534</v>
+        <v>0.000132269284222275</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.2016949653625488</v>
+        <v>0.001278395648114383</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.5201663970947266</v>
+        <v>0.001913816086016595</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.1531781852245331</v>
+        <v>1.897654146887362e-05</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.05669587850570679</v>
+        <v>0.0004753763787448406</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.0383763462305069</v>
+        <v>0.0005725665832869709</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.2767707109451294</v>
+        <v>0.002160971518605947</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.7493668794631958</v>
+        <v>0.0003853810485452414</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.2715676426887512</v>
+        <v>0.00248588272370398</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.116118498146534</v>
+        <v>0.001938404166139662</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.1544274389743805</v>
+        <v>2.176250563934445e-05</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.4661331176757812</v>
+        <v>0.0006551035912707448</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.0732744038105011</v>
+        <v>7.106202247086912e-05</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.1908954232931137</v>
+        <v>0.001653965329751372</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.1573326289653778</v>
+        <v>2.277674502693117e-05</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.2004860639572144</v>
+        <v>0.001497746212407947</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.224757194519043</v>
+        <v>0.0002613777760416269</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.3370569944381714</v>
+        <v>0.003057763678953052</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.2219453454017639</v>
+        <v>0.0009112437255680561</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.2722622752189636</v>
+        <v>0.0001260069839190692</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.5505509376525879</v>
+        <v>0.00260441261343658</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.2790435254573822</v>
+        <v>0.003485241439193487</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.7353560924530029</v>
+        <v>0.001055261236615479</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.6573951840400696</v>
+        <v>0.002714712871238589</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.379347562789917</v>
+        <v>0.00455891527235508</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.4888768196105957</v>
+        <v>0.001227900153025985</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.2607973515987396</v>
+        <v>0.001853640307672322</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.1556817591190338</v>
+        <v>0.002266607247292995</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.2067414373159409</v>
+        <v>0.0001881208445411175</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.3299245238304138</v>
+        <v>0.0008150889188982546</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.1704614460468292</v>
+        <v>0.0001820807810872793</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.2549190521240234</v>
+        <v>0.001208147616125643</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.1409528404474258</v>
+        <v>0.0002305073576280847</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.1605449765920639</v>
+        <v>0.001139800995588303</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.1647922098636627</v>
+        <v>0.0002199375012423843</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.1091663017868996</v>
+        <v>0.001370095531456172</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.343878298997879</v>
+        <v>0.002103178994730115</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.08378784358501434</v>
+        <v>0.003397133434191346</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.4540989100933075</v>
+        <v>0.004208615515381098</v>
       </c>
       <c r="DI13" t="n">
-        <v>1.378816843032837</v>
+        <v>0.0003550623077899218</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.02313044667243958</v>
+        <v>0.0007622501580044627</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.2911605834960938</v>
+        <v>0.001122379559092224</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.6200302243232727</v>
+        <v>0.005156245548278093</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.425086110830307</v>
+        <v>0.0009838638361543417</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.09345369040966034</v>
+        <v>0.0009865659521892667</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.244235634803772</v>
+        <v>0.0001554213813506067</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.1492220759391785</v>
+        <v>0.0009294521296396852</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.03888864815235138</v>
+        <v>0.001139191910624504</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.06774859130382538</v>
+        <v>0.002687808126211166</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.2774233520030975</v>
+        <v>0.001033661770634353</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.3082160651683807</v>
+        <v>0.0009472073870711029</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.2397077679634094</v>
+        <v>0.0006547231459990144</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.0578424483537674</v>
+        <v>0.001548318541608751</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.1331545263528824</v>
+        <v>0.002472800435498357</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.02632142603397369</v>
+        <v>0.002005136106163263</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.105555348098278</v>
+        <v>0.0004303607274778187</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.116310827434063</v>
+        <v>0.001107284100726247</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.5124423503875732</v>
+        <v>0.001432852819561958</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.3700065016746521</v>
+        <v>0.000807143107522279</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.1251553893089294</v>
+        <v>0.000346888235071674</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.1201543882489204</v>
+        <v>0.0002735382004175335</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.02501438558101654</v>
+        <v>0.0007587160798721015</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.5046094655990601</v>
+        <v>0.002397233387455344</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.08457352221012115</v>
+        <v>0.002818581648170948</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.1462166905403137</v>
+        <v>0.001416440238244832</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.4630802869796753</v>
+        <v>0.002845393493771553</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.01769360899925232</v>
+        <v>0.002858795924112201</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.3279275894165039</v>
+        <v>0.0006854126113466918</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.03755880892276764</v>
+        <v>0.0001302534656133503</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.2659047245979309</v>
+        <v>0.0002659970195963979</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.1778793781995773</v>
+        <v>0.0003034308028873056</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.2203068733215332</v>
+        <v>0.0001769959344528615</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.09309035539627075</v>
+        <v>0.004187334794551134</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.3755343556404114</v>
+        <v>0.0007617475930601358</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.1141533851623535</v>
+        <v>0.0001857280440162867</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.1067266166210175</v>
+        <v>0.0001266535255126655</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.1922264993190765</v>
+        <v>0.001695097773335874</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.2054756432771683</v>
+        <v>0.001151488977484405</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.06020941585302353</v>
+        <v>0.0004517208435572684</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.1183155924081802</v>
+        <v>0.002430742373690009</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.2651490569114685</v>
+        <v>0.002026869682595134</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.09677155315876007</v>
+        <v>0.002234447747468948</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.23726487159729</v>
+        <v>0.0003643847885541618</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.354931116104126</v>
+        <v>0.000697948329616338</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.158086359500885</v>
+        <v>0.000232199759921059</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.02015317231416702</v>
+        <v>0.001266607665456831</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.1340142339468002</v>
+        <v>0.0002036074001807719</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.2286390066146851</v>
+        <v>0.001292675035074353</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.017464529722929</v>
+        <v>0.0003224470419809222</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.3962020576000214</v>
+        <v>0.0002224047784693539</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.03868728131055832</v>
+        <v>0.003019727766513824</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.1194415017962456</v>
+        <v>0.002856518374755979</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.6377232670783997</v>
+        <v>0.0005392585298977792</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.2450908869504929</v>
+        <v>0.001071549020707607</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.4775991439819336</v>
+        <v>0.002975477138534188</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.2199648916721344</v>
+        <v>0.001542597776278853</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.1807353794574738</v>
+        <v>0.0007457080064341426</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.023445725440979</v>
+        <v>0.0009784840513020754</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.1298685520887375</v>
+        <v>0.001847392879426479</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.5152444839477539</v>
+        <v>0.001466055517084897</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.170476108789444</v>
+        <v>0.001995599130168557</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.6391054391860962</v>
+        <v>0.002112566493451595</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.2733732759952545</v>
+        <v>0.003231540089473128</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.5708244442939758</v>
+        <v>0.002577532082796097</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.1605533063411713</v>
+        <v>0.00162515789270401</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.6802775859832764</v>
+        <v>0.0003836986725218594</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.4036358594894409</v>
+        <v>0.0006566513911820948</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.2655870914459229</v>
+        <v>0.001244069542735815</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.3170908093452454</v>
+        <v>1.518588396720588e-05</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.2109566032886505</v>
+        <v>4.314634134061635e-05</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.07540123909711838</v>
+        <v>0.0002055882068816572</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.2918227314949036</v>
+        <v>0.001222529332153499</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.6500914096832275</v>
+        <v>0.0001872236171038821</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.261667400598526</v>
+        <v>0.001043526572175324</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.1373245865106583</v>
+        <v>0.0007106675184331834</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.1060415059328079</v>
+        <v>0.00118364836089313</v>
       </c>
     </row>
     <row r="14">
